--- a/Assets/06.Table/MonthlyPass2.xlsx
+++ b/Assets/06.Table/MonthlyPass2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5456B625-FBD5-4097-883B-337B3CE079DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF570A8-4A10-481E-A88A-A0C6B845BEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28560" yWindow="0" windowWidth="29040" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="monthpass2" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="41">
   <si>
     <t>Id</t>
   </si>
@@ -181,6 +181,18 @@
   </si>
   <si>
     <t>150만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01월 보상 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무료 지급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유료 지급</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -652,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:J201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E140" sqref="E140"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -694,13 +706,13 @@
         <v>500000</v>
       </c>
       <c r="C2" s="4">
-        <v>8615</v>
+        <v>7291</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" s="3">
-        <v>1470</v>
+        <v>1485</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -5152,10 +5164,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B5FDB1-0DA9-4220-B18D-A891CDB262A0}">
-  <dimension ref="B3:J36"/>
+  <dimension ref="B3:J65"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5645,7 +5657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C33">
         <v>9026</v>
       </c>
@@ -5653,7 +5665,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C34">
         <v>9016</v>
       </c>
@@ -5661,7 +5673,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C35">
         <v>9008</v>
       </c>
@@ -5669,12 +5681,377 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C36">
         <v>9010</v>
       </c>
       <c r="D36">
         <v>15000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>9039</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44">
+        <f>SUMIF(monthpass2!C:C,balance!B44,monthpass2!D:D)</f>
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <f>SUMIF(monthpass2!E:E,balance!B44,monthpass2!F:F)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>9044</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45">
+        <f>SUMIF(monthpass2!C:C,balance!B45,monthpass2!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <f>SUMIF(monthpass2!E:E,balance!B45,monthpass2!F:F)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>9041</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46">
+        <f>SUMIF(monthpass2!C:C,balance!B46,monthpass2!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <f>SUMIF(monthpass2!E:E,balance!B46,monthpass2!F:F)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>9038</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47">
+        <f>SUMIF(monthpass2!C:C,balance!B47,monthpass2!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <f>SUMIF(monthpass2!E:E,balance!B47,monthpass2!F:F)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>9033</v>
+      </c>
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48">
+        <f>SUMIF(monthpass2!C:C,balance!B48,monthpass2!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <f>SUMIF(monthpass2!E:E,balance!B48,monthpass2!F:F)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>9028</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49">
+        <f>SUMIF(monthpass2!C:C,balance!B49,monthpass2!D:D)</f>
+        <v>28</v>
+      </c>
+      <c r="E49">
+        <f>SUMIF(monthpass2!E:E,balance!B49,monthpass2!F:F)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>9027</v>
+      </c>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50">
+        <f>SUMIF(monthpass2!C:C,balance!B50,monthpass2!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <f>SUMIF(monthpass2!E:E,balance!B50,monthpass2!F:F)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>9017</v>
+      </c>
+      <c r="C51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51">
+        <f>SUMIF(monthpass2!C:C,balance!B51,monthpass2!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <f>SUMIF(monthpass2!E:E,balance!B51,monthpass2!F:F)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>9023</v>
+      </c>
+      <c r="C52" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52">
+        <f>SUMIF(monthpass2!C:C,balance!B52,monthpass2!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <f>SUMIF(monthpass2!E:E,balance!B52,monthpass2!F:F)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>9009</v>
+      </c>
+      <c r="C53" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53">
+        <f>SUMIF(monthpass2!C:C,balance!B53,monthpass2!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <f>SUMIF(monthpass2!E:E,balance!B53,monthpass2!F:F)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>30</v>
+      </c>
+      <c r="C55" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55">
+        <f>SUMIF(monthpass2!C:C,balance!B55,monthpass2!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <f>SUMIF(monthpass2!E:E,balance!B55,monthpass2!F:F)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>46</v>
+      </c>
+      <c r="C56" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56">
+        <f>SUMIF(monthpass2!C:C,balance!B56,monthpass2!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <f>SUMIF(monthpass2!E:E,balance!B56,monthpass2!F:F)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>73</v>
+      </c>
+      <c r="C57" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57">
+        <f>SUMIF(monthpass2!C:C,balance!B57,monthpass2!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <f>SUMIF(monthpass2!E:E,balance!B57,monthpass2!F:F)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>88</v>
+      </c>
+      <c r="C58" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58">
+        <f>SUMIF(monthpass2!C:C,balance!B58,monthpass2!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <f>SUMIF(monthpass2!E:E,balance!B58,monthpass2!F:F)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>9001</v>
+      </c>
+      <c r="C59" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59">
+        <f>SUMIF(monthpass2!C:C,balance!B59,monthpass2!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <f>SUMIF(monthpass2!E:E,balance!B59,monthpass2!F:F)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>9010</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60">
+        <f>SUMIF(monthpass2!C:C,balance!B60,monthpass2!D:D)</f>
+        <v>420000</v>
+      </c>
+      <c r="E60">
+        <f>SUMIF(monthpass2!E:E,balance!B60,monthpass2!F:F)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>9008</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61">
+        <f>SUMIF(monthpass2!C:C,balance!B61,monthpass2!D:D)</f>
+        <v>1400000</v>
+      </c>
+      <c r="E61">
+        <f>SUMIF(monthpass2!E:E,balance!B61,monthpass2!F:F)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>9016</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62">
+        <f>SUMIF(monthpass2!C:C,balance!B62,monthpass2!D:D)</f>
+        <v>28000</v>
+      </c>
+      <c r="E62">
+        <f>SUMIF(monthpass2!E:E,balance!B62,monthpass2!F:F)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>9026</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63">
+        <f>SUMIF(monthpass2!C:C,balance!B63,monthpass2!D:D)</f>
+        <v>840000</v>
+      </c>
+      <c r="E63">
+        <f>SUMIF(monthpass2!E:E,balance!B63,monthpass2!F:F)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>9032</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64">
+        <f>SUMIF(monthpass2!C:C,balance!B64,monthpass2!D:D)</f>
+        <v>87000000</v>
+      </c>
+      <c r="E64">
+        <f>SUMIF(monthpass2!E:E,balance!B64,monthpass2!F:F)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>9043</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D65">
+        <f>SUMIF(monthpass2!C:C,balance!B65,monthpass2!D:D)</f>
+        <v>870000</v>
+      </c>
+      <c r="E65">
+        <f>SUMIF(monthpass2!E:E,balance!B65,monthpass2!F:F)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MonthlyPass2.xlsx
+++ b/Assets/06.Table/MonthlyPass2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF570A8-4A10-481E-A88A-A0C6B845BEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29D3A03-EACB-4C78-88D3-2F6EA3BB8A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="43">
   <si>
     <t>Id</t>
   </si>
@@ -193,6 +193,14 @@
   </si>
   <si>
     <t>유료 지급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태극조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사신수 기운</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -706,13 +714,13 @@
         <v>500000</v>
       </c>
       <c r="C2" s="4">
-        <v>7291</v>
+        <v>2015</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" s="3">
-        <v>1485</v>
+        <v>1502</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -746,20 +754,20 @@
         <v>1500000</v>
       </c>
       <c r="C4" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D4" s="1">
-        <f>IF(C4=9043,30000,
-IF(C4=9032,3000000,
-IF(C4=9026,30000,
-IF(C4=9016,1000,
-IF(C4=9008,50000,
-IF(C4=9010,15000,
+        <f>IF(C4=9043,60000,
+IF(C4=9032,3500000,
+IF(C4=9026,35000,
+IF(C4=9016,1200,
+IF(C4=9062,3500,
+IF(C4=9049,5500,
 IF(C4=9028,1)))))))</f>
-        <v>30000</v>
+        <v>3500</v>
       </c>
       <c r="E4" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F4" s="1">
         <f>IF(E4=9044,1,
@@ -767,8 +775,8 @@
 IF(E4=9028,2,
 IF(E4=9027,1,
 IF(E4=9017,1,
-IF(E4=9023,2,
-IF(E4=9009,2)))))))</f>
+IF(E4=9063,1,
+IF(E4=9050,1)))))))</f>
         <v>1</v>
       </c>
     </row>
@@ -780,20 +788,20 @@
         <v>2000000</v>
       </c>
       <c r="C5" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D68" si="0">IF(C5=9043,30000,
-IF(C5=9032,3000000,
-IF(C5=9026,30000,
-IF(C5=9016,1000,
-IF(C5=9008,50000,
-IF(C5=9010,15000,
+        <f t="shared" ref="D5:D68" si="0">IF(C5=9043,60000,
+IF(C5=9032,3500000,
+IF(C5=9026,35000,
+IF(C5=9016,1200,
+IF(C5=9062,3500,
+IF(C5=9049,5500,
 IF(C5=9028,1)))))))</f>
-        <v>3000000</v>
+        <v>5500</v>
       </c>
       <c r="E5" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" ref="F5:F68" si="1">IF(E5=9044,1,
@@ -801,8 +809,8 @@
 IF(E5=9028,2,
 IF(E5=9027,1,
 IF(E5=9017,1,
-IF(E5=9023,2,
-IF(E5=9009,2)))))))</f>
+IF(E5=9063,1,
+IF(E5=9050,1)))))))</f>
         <v>1</v>
       </c>
     </row>
@@ -814,18 +822,18 @@
         <v>2500000</v>
       </c>
       <c r="C6" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>60000</v>
       </c>
       <c r="E6" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -836,14 +844,14 @@
         <v>3000000</v>
       </c>
       <c r="C7" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>3500000</v>
       </c>
       <c r="E7" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="1"/>
@@ -858,18 +866,18 @@
         <v>3500000</v>
       </c>
       <c r="C8" s="9">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -880,18 +888,18 @@
         <v>4000000</v>
       </c>
       <c r="C9" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="E9" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -902,18 +910,18 @@
         <v>4500000</v>
       </c>
       <c r="C10" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>1200</v>
       </c>
       <c r="E10" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -924,14 +932,14 @@
         <v>5000000</v>
       </c>
       <c r="C11" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>3500</v>
       </c>
       <c r="E11" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="1"/>
@@ -946,14 +954,14 @@
         <v>5500000</v>
       </c>
       <c r="C12" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>5500</v>
       </c>
       <c r="E12" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="1"/>
@@ -969,18 +977,18 @@
         <v>6000000</v>
       </c>
       <c r="C13" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>60000</v>
       </c>
       <c r="E13" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -991,14 +999,14 @@
         <v>6500000</v>
       </c>
       <c r="C14" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>3500000</v>
       </c>
       <c r="E14" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
@@ -1013,18 +1021,18 @@
         <v>7000000</v>
       </c>
       <c r="C15" s="9">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1035,18 +1043,18 @@
         <v>7500000</v>
       </c>
       <c r="C16" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="E16" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1057,18 +1065,18 @@
         <v>8000000</v>
       </c>
       <c r="C17" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>1200</v>
       </c>
       <c r="E17" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1079,14 +1087,14 @@
         <v>8500000</v>
       </c>
       <c r="C18" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>3500</v>
       </c>
       <c r="E18" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="1"/>
@@ -1101,14 +1109,14 @@
         <v>9000000</v>
       </c>
       <c r="C19" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>5500</v>
       </c>
       <c r="E19" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="1"/>
@@ -1123,18 +1131,18 @@
         <v>9500000</v>
       </c>
       <c r="C20" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>60000</v>
       </c>
       <c r="E20" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1145,14 +1153,14 @@
         <v>10000000</v>
       </c>
       <c r="C21" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>3500000</v>
       </c>
       <c r="E21" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="1"/>
@@ -1167,18 +1175,18 @@
         <v>10500000</v>
       </c>
       <c r="C22" s="9">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1189,18 +1197,18 @@
         <v>11000000</v>
       </c>
       <c r="C23" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="E23" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1211,18 +1219,18 @@
         <v>11500000</v>
       </c>
       <c r="C24" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>1200</v>
       </c>
       <c r="E24" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1233,14 +1241,14 @@
         <v>12000000</v>
       </c>
       <c r="C25" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>3500</v>
       </c>
       <c r="E25" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="1"/>
@@ -1255,14 +1263,14 @@
         <v>12500000</v>
       </c>
       <c r="C26" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>5500</v>
       </c>
       <c r="E26" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="1"/>
@@ -1277,18 +1285,18 @@
         <v>13000000</v>
       </c>
       <c r="C27" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>60000</v>
       </c>
       <c r="E27" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1299,14 +1307,14 @@
         <v>13500000</v>
       </c>
       <c r="C28" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>3500000</v>
       </c>
       <c r="E28" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="1"/>
@@ -1321,18 +1329,18 @@
         <v>14000000</v>
       </c>
       <c r="C29" s="9">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E29" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1343,18 +1351,18 @@
         <v>14500000</v>
       </c>
       <c r="C30" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="E30" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1365,18 +1373,18 @@
         <v>15000000</v>
       </c>
       <c r="C31" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>1200</v>
       </c>
       <c r="E31" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1387,14 +1395,14 @@
         <v>15500000</v>
       </c>
       <c r="C32" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>3500</v>
       </c>
       <c r="E32" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="1"/>
@@ -1409,14 +1417,14 @@
         <v>16000000</v>
       </c>
       <c r="C33" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>5500</v>
       </c>
       <c r="E33" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="1"/>
@@ -1431,18 +1439,18 @@
         <v>16500000</v>
       </c>
       <c r="C34" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>60000</v>
       </c>
       <c r="E34" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1453,14 +1461,14 @@
         <v>17000000</v>
       </c>
       <c r="C35" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>3500000</v>
       </c>
       <c r="E35" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="1"/>
@@ -1475,18 +1483,18 @@
         <v>17500000</v>
       </c>
       <c r="C36" s="9">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E36" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1497,18 +1505,18 @@
         <v>18000000</v>
       </c>
       <c r="C37" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="E37" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1519,18 +1527,18 @@
         <v>18500000</v>
       </c>
       <c r="C38" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>1200</v>
       </c>
       <c r="E38" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1541,14 +1549,14 @@
         <v>19000000</v>
       </c>
       <c r="C39" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>3500</v>
       </c>
       <c r="E39" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="1"/>
@@ -1563,14 +1571,14 @@
         <v>19500000</v>
       </c>
       <c r="C40" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>5500</v>
       </c>
       <c r="E40" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="1"/>
@@ -1585,18 +1593,18 @@
         <v>20000000</v>
       </c>
       <c r="C41" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>60000</v>
       </c>
       <c r="E41" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1607,14 +1615,14 @@
         <v>20500000</v>
       </c>
       <c r="C42" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>3500000</v>
       </c>
       <c r="E42" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="1"/>
@@ -1629,18 +1637,18 @@
         <v>21000000</v>
       </c>
       <c r="C43" s="9">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E43" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1651,18 +1659,18 @@
         <v>21500000</v>
       </c>
       <c r="C44" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="E44" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1673,18 +1681,18 @@
         <v>22000000</v>
       </c>
       <c r="C45" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>1200</v>
       </c>
       <c r="E45" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1695,14 +1703,14 @@
         <v>22500000</v>
       </c>
       <c r="C46" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>3500</v>
       </c>
       <c r="E46" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="1"/>
@@ -1717,14 +1725,14 @@
         <v>23000000</v>
       </c>
       <c r="C47" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D47" s="1">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>5500</v>
       </c>
       <c r="E47" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="1"/>
@@ -1739,18 +1747,18 @@
         <v>23500000</v>
       </c>
       <c r="C48" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>60000</v>
       </c>
       <c r="E48" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -1761,14 +1769,14 @@
         <v>24000000</v>
       </c>
       <c r="C49" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D49" s="1">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>3500000</v>
       </c>
       <c r="E49" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="1"/>
@@ -1783,18 +1791,18 @@
         <v>24500000</v>
       </c>
       <c r="C50" s="9">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D50" s="1">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E50" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1805,18 +1813,18 @@
         <v>25000000</v>
       </c>
       <c r="C51" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D51" s="1">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="E51" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -1827,18 +1835,18 @@
         <v>25500000</v>
       </c>
       <c r="C52" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D52" s="1">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>1200</v>
       </c>
       <c r="E52" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -1849,14 +1857,14 @@
         <v>26000000</v>
       </c>
       <c r="C53" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D53" s="1">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>3500</v>
       </c>
       <c r="E53" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="1"/>
@@ -1871,14 +1879,14 @@
         <v>26500000</v>
       </c>
       <c r="C54" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D54" s="1">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>5500</v>
       </c>
       <c r="E54" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F54" s="1">
         <f t="shared" si="1"/>
@@ -1893,18 +1901,18 @@
         <v>27000000</v>
       </c>
       <c r="C55" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D55" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>60000</v>
       </c>
       <c r="E55" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1915,14 +1923,14 @@
         <v>27500000</v>
       </c>
       <c r="C56" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D56" s="1">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>3500000</v>
       </c>
       <c r="E56" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F56" s="1">
         <f t="shared" si="1"/>
@@ -1937,18 +1945,18 @@
         <v>28000000</v>
       </c>
       <c r="C57" s="9">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D57" s="1">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E57" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F57" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -1959,18 +1967,18 @@
         <v>28500000</v>
       </c>
       <c r="C58" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D58" s="1">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="E58" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F58" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -1981,18 +1989,18 @@
         <v>29000000</v>
       </c>
       <c r="C59" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D59" s="1">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>1200</v>
       </c>
       <c r="E59" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F59" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2003,14 +2011,14 @@
         <v>29500000</v>
       </c>
       <c r="C60" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D60" s="1">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>3500</v>
       </c>
       <c r="E60" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F60" s="1">
         <f t="shared" si="1"/>
@@ -2025,14 +2033,14 @@
         <v>30000000</v>
       </c>
       <c r="C61" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D61" s="1">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>5500</v>
       </c>
       <c r="E61" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F61" s="1">
         <f t="shared" si="1"/>
@@ -2047,18 +2055,18 @@
         <v>30500000</v>
       </c>
       <c r="C62" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D62" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>60000</v>
       </c>
       <c r="E62" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F62" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2069,14 +2077,14 @@
         <v>31000000</v>
       </c>
       <c r="C63" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D63" s="1">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>3500000</v>
       </c>
       <c r="E63" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F63" s="1">
         <f t="shared" si="1"/>
@@ -2091,18 +2099,18 @@
         <v>31500000</v>
       </c>
       <c r="C64" s="9">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D64" s="1">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E64" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F64" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2113,18 +2121,18 @@
         <v>32000000</v>
       </c>
       <c r="C65" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D65" s="1">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="E65" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F65" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2135,18 +2143,18 @@
         <v>32500000</v>
       </c>
       <c r="C66" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D66" s="1">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>1200</v>
       </c>
       <c r="E66" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F66" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2157,14 +2165,14 @@
         <v>33000000</v>
       </c>
       <c r="C67" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D67" s="1">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>3500</v>
       </c>
       <c r="E67" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F67" s="1">
         <f t="shared" si="1"/>
@@ -2179,14 +2187,14 @@
         <v>33500000</v>
       </c>
       <c r="C68" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D68" s="1">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>5500</v>
       </c>
       <c r="E68" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F68" s="1">
         <f t="shared" si="1"/>
@@ -2201,20 +2209,20 @@
         <v>34000000</v>
       </c>
       <c r="C69" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" ref="D69:D132" si="2">IF(C69=9043,30000,
-IF(C69=9032,3000000,
-IF(C69=9026,30000,
-IF(C69=9016,1000,
-IF(C69=9008,50000,
-IF(C69=9010,15000,
+        <f t="shared" ref="D69:D132" si="2">IF(C69=9043,60000,
+IF(C69=9032,3500000,
+IF(C69=9026,35000,
+IF(C69=9016,1200,
+IF(C69=9062,3500,
+IF(C69=9049,5500,
 IF(C69=9028,1)))))))</f>
-        <v>1</v>
+        <v>60000</v>
       </c>
       <c r="E69" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F69" s="1">
         <f t="shared" ref="F69:F132" si="3">IF(E69=9044,1,
@@ -2222,9 +2230,9 @@
 IF(E69=9028,2,
 IF(E69=9027,1,
 IF(E69=9017,1,
-IF(E69=9023,2,
-IF(E69=9009,2)))))))</f>
-        <v>2</v>
+IF(E69=9063,1,
+IF(E69=9050,1)))))))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2235,14 +2243,14 @@
         <v>34500000</v>
       </c>
       <c r="C70" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D70" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>3500000</v>
       </c>
       <c r="E70" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F70" s="1">
         <f t="shared" si="3"/>
@@ -2257,18 +2265,18 @@
         <v>35000000</v>
       </c>
       <c r="C71" s="9">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D71" s="1">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E71" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F71" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -2279,18 +2287,18 @@
         <v>35500000</v>
       </c>
       <c r="C72" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D72" s="1">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="E72" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F72" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -2301,18 +2309,18 @@
         <v>36000000</v>
       </c>
       <c r="C73" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D73" s="1">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>1200</v>
       </c>
       <c r="E73" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F73" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -2323,14 +2331,14 @@
         <v>36500000</v>
       </c>
       <c r="C74" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D74" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>3500</v>
       </c>
       <c r="E74" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F74" s="1">
         <f t="shared" si="3"/>
@@ -2345,14 +2353,14 @@
         <v>37000000</v>
       </c>
       <c r="C75" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D75" s="1">
         <f t="shared" si="2"/>
-        <v>3000000</v>
+        <v>5500</v>
       </c>
       <c r="E75" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F75" s="1">
         <f t="shared" si="3"/>
@@ -2367,18 +2375,18 @@
         <v>37500000</v>
       </c>
       <c r="C76" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D76" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>60000</v>
       </c>
       <c r="E76" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F76" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -2389,14 +2397,14 @@
         <v>38000000</v>
       </c>
       <c r="C77" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D77" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>3500000</v>
       </c>
       <c r="E77" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F77" s="1">
         <f t="shared" si="3"/>
@@ -2411,18 +2419,18 @@
         <v>38500000</v>
       </c>
       <c r="C78" s="9">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D78" s="1">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E78" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F78" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -2433,18 +2441,18 @@
         <v>39000000</v>
       </c>
       <c r="C79" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D79" s="1">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="E79" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F79" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -2455,18 +2463,18 @@
         <v>39500000</v>
       </c>
       <c r="C80" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D80" s="1">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>1200</v>
       </c>
       <c r="E80" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F80" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2477,14 +2485,14 @@
         <v>40000000</v>
       </c>
       <c r="C81" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D81" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>3500</v>
       </c>
       <c r="E81" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F81" s="1">
         <f t="shared" si="3"/>
@@ -2499,14 +2507,14 @@
         <v>40500000</v>
       </c>
       <c r="C82" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D82" s="1">
         <f t="shared" si="2"/>
-        <v>3000000</v>
+        <v>5500</v>
       </c>
       <c r="E82" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F82" s="1">
         <f t="shared" si="3"/>
@@ -2521,18 +2529,18 @@
         <v>41000000</v>
       </c>
       <c r="C83" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D83" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>60000</v>
       </c>
       <c r="E83" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F83" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -2543,14 +2551,14 @@
         <v>41500000</v>
       </c>
       <c r="C84" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D84" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>3500000</v>
       </c>
       <c r="E84" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F84" s="1">
         <f t="shared" si="3"/>
@@ -2565,18 +2573,18 @@
         <v>42000000</v>
       </c>
       <c r="C85" s="9">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D85" s="1">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E85" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F85" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2587,18 +2595,18 @@
         <v>42500000</v>
       </c>
       <c r="C86" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D86" s="1">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="E86" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F86" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -2609,18 +2617,18 @@
         <v>43000000</v>
       </c>
       <c r="C87" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D87" s="1">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>1200</v>
       </c>
       <c r="E87" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F87" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -2631,14 +2639,14 @@
         <v>43500000</v>
       </c>
       <c r="C88" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D88" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>3500</v>
       </c>
       <c r="E88" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F88" s="1">
         <f t="shared" si="3"/>
@@ -2653,14 +2661,14 @@
         <v>44000000</v>
       </c>
       <c r="C89" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D89" s="1">
         <f t="shared" si="2"/>
-        <v>3000000</v>
+        <v>5500</v>
       </c>
       <c r="E89" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F89" s="1">
         <f t="shared" si="3"/>
@@ -2675,18 +2683,18 @@
         <v>44500000</v>
       </c>
       <c r="C90" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D90" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>60000</v>
       </c>
       <c r="E90" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F90" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2697,14 +2705,14 @@
         <v>45000000</v>
       </c>
       <c r="C91" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D91" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>3500000</v>
       </c>
       <c r="E91" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F91" s="1">
         <f t="shared" si="3"/>
@@ -2719,18 +2727,18 @@
         <v>45500000</v>
       </c>
       <c r="C92" s="9">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D92" s="1">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E92" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F92" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -2741,18 +2749,18 @@
         <v>46000000</v>
       </c>
       <c r="C93" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D93" s="1">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="E93" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F93" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -2763,18 +2771,18 @@
         <v>46500000</v>
       </c>
       <c r="C94" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D94" s="1">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>1200</v>
       </c>
       <c r="E94" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F94" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -2785,14 +2793,14 @@
         <v>47000000</v>
       </c>
       <c r="C95" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D95" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>3500</v>
       </c>
       <c r="E95" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F95" s="1">
         <f t="shared" si="3"/>
@@ -2807,14 +2815,14 @@
         <v>47500000</v>
       </c>
       <c r="C96" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D96" s="1">
         <f t="shared" si="2"/>
-        <v>3000000</v>
+        <v>5500</v>
       </c>
       <c r="E96" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F96" s="1">
         <f t="shared" si="3"/>
@@ -2829,18 +2837,18 @@
         <v>48000000</v>
       </c>
       <c r="C97" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D97" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>60000</v>
       </c>
       <c r="E97" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F97" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -2851,14 +2859,14 @@
         <v>48500000</v>
       </c>
       <c r="C98" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D98" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>3500000</v>
       </c>
       <c r="E98" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F98" s="1">
         <f t="shared" si="3"/>
@@ -2873,18 +2881,18 @@
         <v>49000000</v>
       </c>
       <c r="C99" s="9">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D99" s="1">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E99" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F99" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -2895,18 +2903,18 @@
         <v>49500000</v>
       </c>
       <c r="C100" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D100" s="1">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="E100" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F100" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -2917,18 +2925,18 @@
         <v>50000000</v>
       </c>
       <c r="C101" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D101" s="1">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>1200</v>
       </c>
       <c r="E101" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F101" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -2939,14 +2947,14 @@
         <v>50500000</v>
       </c>
       <c r="C102" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D102" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>3500</v>
       </c>
       <c r="E102" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F102" s="1">
         <f t="shared" si="3"/>
@@ -2961,14 +2969,14 @@
         <v>51000000</v>
       </c>
       <c r="C103" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D103" s="1">
         <f t="shared" si="2"/>
-        <v>3000000</v>
+        <v>5500</v>
       </c>
       <c r="E103" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F103" s="1">
         <f t="shared" si="3"/>
@@ -2983,18 +2991,18 @@
         <v>51500000</v>
       </c>
       <c r="C104" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D104" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>60000</v>
       </c>
       <c r="E104" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F104" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -3005,14 +3013,14 @@
         <v>52000000</v>
       </c>
       <c r="C105" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D105" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>3500000</v>
       </c>
       <c r="E105" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F105" s="1">
         <f t="shared" si="3"/>
@@ -3027,18 +3035,18 @@
         <v>52500000</v>
       </c>
       <c r="C106" s="9">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D106" s="1">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E106" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F106" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -3049,18 +3057,18 @@
         <v>53000000</v>
       </c>
       <c r="C107" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D107" s="1">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="E107" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F107" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -3071,18 +3079,18 @@
         <v>53500000</v>
       </c>
       <c r="C108" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D108" s="1">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>1200</v>
       </c>
       <c r="E108" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F108" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -3093,14 +3101,14 @@
         <v>54000000</v>
       </c>
       <c r="C109" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D109" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>3500</v>
       </c>
       <c r="E109" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F109" s="1">
         <f t="shared" si="3"/>
@@ -3115,14 +3123,14 @@
         <v>54500000</v>
       </c>
       <c r="C110" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D110" s="1">
         <f t="shared" si="2"/>
-        <v>3000000</v>
+        <v>5500</v>
       </c>
       <c r="E110" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F110" s="1">
         <f t="shared" si="3"/>
@@ -3137,18 +3145,18 @@
         <v>55000000</v>
       </c>
       <c r="C111" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D111" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>60000</v>
       </c>
       <c r="E111" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F111" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -3159,14 +3167,14 @@
         <v>55500000</v>
       </c>
       <c r="C112" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D112" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>3500000</v>
       </c>
       <c r="E112" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F112" s="1">
         <f t="shared" si="3"/>
@@ -3181,18 +3189,18 @@
         <v>56000000</v>
       </c>
       <c r="C113" s="9">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D113" s="1">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E113" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F113" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -3203,18 +3211,18 @@
         <v>56500000</v>
       </c>
       <c r="C114" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D114" s="1">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="E114" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F114" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -3225,18 +3233,18 @@
         <v>57000000</v>
       </c>
       <c r="C115" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D115" s="1">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>1200</v>
       </c>
       <c r="E115" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F115" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -3247,14 +3255,14 @@
         <v>57500000</v>
       </c>
       <c r="C116" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D116" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>3500</v>
       </c>
       <c r="E116" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F116" s="1">
         <f t="shared" si="3"/>
@@ -3269,14 +3277,14 @@
         <v>58000000</v>
       </c>
       <c r="C117" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D117" s="1">
         <f t="shared" si="2"/>
-        <v>3000000</v>
+        <v>5500</v>
       </c>
       <c r="E117" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F117" s="1">
         <f t="shared" si="3"/>
@@ -3291,18 +3299,18 @@
         <v>58500000</v>
       </c>
       <c r="C118" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D118" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>60000</v>
       </c>
       <c r="E118" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F118" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -3313,14 +3321,14 @@
         <v>59000000</v>
       </c>
       <c r="C119" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D119" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>3500000</v>
       </c>
       <c r="E119" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F119" s="1">
         <f t="shared" si="3"/>
@@ -3335,18 +3343,18 @@
         <v>59500000</v>
       </c>
       <c r="C120" s="9">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D120" s="1">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E120" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F120" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -3357,18 +3365,18 @@
         <v>60000000</v>
       </c>
       <c r="C121" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D121" s="1">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="E121" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F121" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -3379,18 +3387,18 @@
         <v>60500000</v>
       </c>
       <c r="C122" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D122" s="1">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>1200</v>
       </c>
       <c r="E122" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F122" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -3401,14 +3409,14 @@
         <v>61000000</v>
       </c>
       <c r="C123" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D123" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>3500</v>
       </c>
       <c r="E123" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F123" s="1">
         <f t="shared" si="3"/>
@@ -3423,14 +3431,14 @@
         <v>61500000</v>
       </c>
       <c r="C124" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D124" s="1">
         <f t="shared" si="2"/>
-        <v>3000000</v>
+        <v>5500</v>
       </c>
       <c r="E124" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F124" s="1">
         <f t="shared" si="3"/>
@@ -3445,18 +3453,18 @@
         <v>62000000</v>
       </c>
       <c r="C125" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D125" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>60000</v>
       </c>
       <c r="E125" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F125" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -3467,14 +3475,14 @@
         <v>62500000</v>
       </c>
       <c r="C126" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D126" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>3500000</v>
       </c>
       <c r="E126" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F126" s="1">
         <f t="shared" si="3"/>
@@ -3489,18 +3497,18 @@
         <v>63000000</v>
       </c>
       <c r="C127" s="9">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D127" s="1">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E127" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F127" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -3511,18 +3519,18 @@
         <v>63500000</v>
       </c>
       <c r="C128" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D128" s="1">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="E128" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F128" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -3533,18 +3541,18 @@
         <v>64000000</v>
       </c>
       <c r="C129" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D129" s="1">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>1200</v>
       </c>
       <c r="E129" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F129" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -3555,14 +3563,14 @@
         <v>64500000</v>
       </c>
       <c r="C130" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D130" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>3500</v>
       </c>
       <c r="E130" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F130" s="1">
         <f t="shared" si="3"/>
@@ -3577,14 +3585,14 @@
         <v>65000000</v>
       </c>
       <c r="C131" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D131" s="1">
         <f t="shared" si="2"/>
-        <v>3000000</v>
+        <v>5500</v>
       </c>
       <c r="E131" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F131" s="1">
         <f t="shared" si="3"/>
@@ -3599,18 +3607,18 @@
         <v>65500000</v>
       </c>
       <c r="C132" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D132" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>60000</v>
       </c>
       <c r="E132" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F132" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -3621,20 +3629,20 @@
         <v>66000000</v>
       </c>
       <c r="C133" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D133" s="1">
-        <f t="shared" ref="D133:D196" si="4">IF(C133=9043,30000,
-IF(C133=9032,3000000,
-IF(C133=9026,30000,
-IF(C133=9016,1000,
-IF(C133=9008,50000,
-IF(C133=9010,15000,
+        <f t="shared" ref="D133:D196" si="4">IF(C133=9043,60000,
+IF(C133=9032,3500000,
+IF(C133=9026,35000,
+IF(C133=9016,1200,
+IF(C133=9062,3500,
+IF(C133=9049,5500,
 IF(C133=9028,1)))))))</f>
-        <v>30000</v>
+        <v>3500000</v>
       </c>
       <c r="E133" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F133" s="1">
         <f t="shared" ref="F133:F196" si="5">IF(E133=9044,1,
@@ -3642,8 +3650,8 @@
 IF(E133=9028,2,
 IF(E133=9027,1,
 IF(E133=9017,1,
-IF(E133=9023,2,
-IF(E133=9009,2)))))))</f>
+IF(E133=9063,1,
+IF(E133=9050,1)))))))</f>
         <v>1</v>
       </c>
     </row>
@@ -3655,18 +3663,18 @@
         <v>66500000</v>
       </c>
       <c r="C134" s="9">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D134" s="1">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E134" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F134" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -3677,18 +3685,18 @@
         <v>67000000</v>
       </c>
       <c r="C135" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D135" s="1">
         <f t="shared" si="4"/>
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="E135" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F135" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -3699,18 +3707,18 @@
         <v>67500000</v>
       </c>
       <c r="C136" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D136" s="1">
         <f t="shared" si="4"/>
-        <v>15000</v>
+        <v>1200</v>
       </c>
       <c r="E136" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F136" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -3721,14 +3729,14 @@
         <v>68000000</v>
       </c>
       <c r="C137" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D137" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>3500</v>
       </c>
       <c r="E137" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F137" s="1">
         <f t="shared" si="5"/>
@@ -3743,14 +3751,14 @@
         <v>68500000</v>
       </c>
       <c r="C138" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D138" s="1">
         <f t="shared" si="4"/>
-        <v>3000000</v>
+        <v>5500</v>
       </c>
       <c r="E138" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F138" s="1">
         <f t="shared" si="5"/>
@@ -3765,18 +3773,18 @@
         <v>69000000</v>
       </c>
       <c r="C139" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D139" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>60000</v>
       </c>
       <c r="E139" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F139" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -3787,14 +3795,14 @@
         <v>69500000</v>
       </c>
       <c r="C140" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D140" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>3500000</v>
       </c>
       <c r="E140" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F140" s="1">
         <f t="shared" si="5"/>
@@ -3809,18 +3817,18 @@
         <v>70000000</v>
       </c>
       <c r="C141" s="9">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D141" s="1">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E141" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F141" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -3831,18 +3839,18 @@
         <v>70500000</v>
       </c>
       <c r="C142" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D142" s="1">
         <f t="shared" si="4"/>
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="E142" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F142" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -3853,18 +3861,18 @@
         <v>71000000</v>
       </c>
       <c r="C143" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D143" s="1">
         <f t="shared" si="4"/>
-        <v>15000</v>
+        <v>1200</v>
       </c>
       <c r="E143" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F143" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -3875,14 +3883,14 @@
         <v>71500000</v>
       </c>
       <c r="C144" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D144" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>3500</v>
       </c>
       <c r="E144" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F144" s="1">
         <f t="shared" si="5"/>
@@ -3897,14 +3905,14 @@
         <v>72000000</v>
       </c>
       <c r="C145" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D145" s="1">
         <f t="shared" si="4"/>
-        <v>3000000</v>
+        <v>5500</v>
       </c>
       <c r="E145" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F145" s="1">
         <f t="shared" si="5"/>
@@ -3919,18 +3927,18 @@
         <v>72500000</v>
       </c>
       <c r="C146" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D146" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>60000</v>
       </c>
       <c r="E146" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F146" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -3941,14 +3949,14 @@
         <v>73000000</v>
       </c>
       <c r="C147" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D147" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>3500000</v>
       </c>
       <c r="E147" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F147" s="1">
         <f t="shared" si="5"/>
@@ -3963,18 +3971,18 @@
         <v>73500000</v>
       </c>
       <c r="C148" s="9">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D148" s="1">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E148" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F148" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -3985,18 +3993,18 @@
         <v>74000000</v>
       </c>
       <c r="C149" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D149" s="1">
         <f t="shared" si="4"/>
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="E149" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F149" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -4007,18 +4015,18 @@
         <v>74500000</v>
       </c>
       <c r="C150" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D150" s="1">
         <f t="shared" si="4"/>
-        <v>15000</v>
+        <v>1200</v>
       </c>
       <c r="E150" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F150" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -4029,14 +4037,14 @@
         <v>75000000</v>
       </c>
       <c r="C151" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D151" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>3500</v>
       </c>
       <c r="E151" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F151" s="1">
         <f t="shared" si="5"/>
@@ -4051,14 +4059,14 @@
         <v>75500000</v>
       </c>
       <c r="C152" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D152" s="1">
         <f t="shared" si="4"/>
-        <v>3000000</v>
+        <v>5500</v>
       </c>
       <c r="E152" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F152" s="1">
         <f t="shared" si="5"/>
@@ -4073,18 +4081,18 @@
         <v>76000000</v>
       </c>
       <c r="C153" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D153" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>60000</v>
       </c>
       <c r="E153" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F153" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -4095,14 +4103,14 @@
         <v>76500000</v>
       </c>
       <c r="C154" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D154" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>3500000</v>
       </c>
       <c r="E154" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F154" s="1">
         <f t="shared" si="5"/>
@@ -4117,18 +4125,18 @@
         <v>77000000</v>
       </c>
       <c r="C155" s="9">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D155" s="1">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E155" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F155" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -4139,18 +4147,18 @@
         <v>77500000</v>
       </c>
       <c r="C156" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D156" s="1">
         <f t="shared" si="4"/>
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="E156" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F156" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -4161,18 +4169,18 @@
         <v>78000000</v>
       </c>
       <c r="C157" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D157" s="1">
         <f t="shared" si="4"/>
-        <v>15000</v>
+        <v>1200</v>
       </c>
       <c r="E157" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F157" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -4183,14 +4191,14 @@
         <v>78500000</v>
       </c>
       <c r="C158" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D158" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>3500</v>
       </c>
       <c r="E158" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F158" s="1">
         <f t="shared" si="5"/>
@@ -4205,14 +4213,14 @@
         <v>79000000</v>
       </c>
       <c r="C159" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D159" s="1">
         <f t="shared" si="4"/>
-        <v>3000000</v>
+        <v>5500</v>
       </c>
       <c r="E159" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F159" s="1">
         <f t="shared" si="5"/>
@@ -4227,18 +4235,18 @@
         <v>79500000</v>
       </c>
       <c r="C160" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D160" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>60000</v>
       </c>
       <c r="E160" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F160" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -4249,14 +4257,14 @@
         <v>80000000</v>
       </c>
       <c r="C161" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D161" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>3500000</v>
       </c>
       <c r="E161" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F161" s="1">
         <f t="shared" si="5"/>
@@ -4271,18 +4279,18 @@
         <v>80500000</v>
       </c>
       <c r="C162" s="9">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D162" s="1">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E162" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F162" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -4293,18 +4301,18 @@
         <v>81000000</v>
       </c>
       <c r="C163" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D163" s="1">
         <f t="shared" si="4"/>
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="E163" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F163" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -4315,18 +4323,18 @@
         <v>81500000</v>
       </c>
       <c r="C164" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D164" s="1">
         <f t="shared" si="4"/>
-        <v>15000</v>
+        <v>1200</v>
       </c>
       <c r="E164" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F164" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -4337,14 +4345,14 @@
         <v>82000000</v>
       </c>
       <c r="C165" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D165" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>3500</v>
       </c>
       <c r="E165" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F165" s="1">
         <f t="shared" si="5"/>
@@ -4359,14 +4367,14 @@
         <v>82500000</v>
       </c>
       <c r="C166" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D166" s="1">
         <f t="shared" si="4"/>
-        <v>3000000</v>
+        <v>5500</v>
       </c>
       <c r="E166" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F166" s="1">
         <f t="shared" si="5"/>
@@ -4381,18 +4389,18 @@
         <v>83000000</v>
       </c>
       <c r="C167" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D167" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>60000</v>
       </c>
       <c r="E167" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F167" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -4403,14 +4411,14 @@
         <v>83500000</v>
       </c>
       <c r="C168" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D168" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>3500000</v>
       </c>
       <c r="E168" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F168" s="1">
         <f t="shared" si="5"/>
@@ -4425,18 +4433,18 @@
         <v>84000000</v>
       </c>
       <c r="C169" s="9">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D169" s="1">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E169" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F169" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -4447,18 +4455,18 @@
         <v>84500000</v>
       </c>
       <c r="C170" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D170" s="1">
         <f t="shared" si="4"/>
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="E170" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F170" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -4469,18 +4477,18 @@
         <v>85000000</v>
       </c>
       <c r="C171" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D171" s="1">
         <f t="shared" si="4"/>
-        <v>15000</v>
+        <v>1200</v>
       </c>
       <c r="E171" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F171" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -4491,14 +4499,14 @@
         <v>85500000</v>
       </c>
       <c r="C172" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D172" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>3500</v>
       </c>
       <c r="E172" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F172" s="1">
         <f t="shared" si="5"/>
@@ -4513,14 +4521,14 @@
         <v>86000000</v>
       </c>
       <c r="C173" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D173" s="1">
         <f t="shared" si="4"/>
-        <v>3000000</v>
+        <v>5500</v>
       </c>
       <c r="E173" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F173" s="1">
         <f t="shared" si="5"/>
@@ -4535,18 +4543,18 @@
         <v>86500000</v>
       </c>
       <c r="C174" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D174" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>60000</v>
       </c>
       <c r="E174" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F174" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -4557,14 +4565,14 @@
         <v>87000000</v>
       </c>
       <c r="C175" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D175" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>3500000</v>
       </c>
       <c r="E175" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F175" s="1">
         <f t="shared" si="5"/>
@@ -4579,18 +4587,18 @@
         <v>87500000</v>
       </c>
       <c r="C176" s="9">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D176" s="1">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E176" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F176" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -4601,18 +4609,18 @@
         <v>88000000</v>
       </c>
       <c r="C177" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D177" s="1">
         <f t="shared" si="4"/>
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="E177" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F177" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
@@ -4623,18 +4631,18 @@
         <v>88500000</v>
       </c>
       <c r="C178" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D178" s="1">
         <f t="shared" si="4"/>
-        <v>15000</v>
+        <v>1200</v>
       </c>
       <c r="E178" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F178" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -4645,14 +4653,14 @@
         <v>89000000</v>
       </c>
       <c r="C179" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D179" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>3500</v>
       </c>
       <c r="E179" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F179" s="1">
         <f t="shared" si="5"/>
@@ -4667,14 +4675,14 @@
         <v>89500000</v>
       </c>
       <c r="C180" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D180" s="1">
         <f t="shared" si="4"/>
-        <v>3000000</v>
+        <v>5500</v>
       </c>
       <c r="E180" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F180" s="1">
         <f t="shared" si="5"/>
@@ -4689,18 +4697,18 @@
         <v>90000000</v>
       </c>
       <c r="C181" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D181" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>60000</v>
       </c>
       <c r="E181" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F181" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -4711,14 +4719,14 @@
         <v>90500000</v>
       </c>
       <c r="C182" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D182" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>3500000</v>
       </c>
       <c r="E182" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F182" s="1">
         <f t="shared" si="5"/>
@@ -4733,18 +4741,18 @@
         <v>91000000</v>
       </c>
       <c r="C183" s="9">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D183" s="1">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E183" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F183" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -4755,18 +4763,18 @@
         <v>91500000</v>
       </c>
       <c r="C184" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D184" s="1">
         <f t="shared" si="4"/>
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="E184" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F184" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -4777,18 +4785,18 @@
         <v>92000000</v>
       </c>
       <c r="C185" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D185" s="1">
         <f t="shared" si="4"/>
-        <v>15000</v>
+        <v>1200</v>
       </c>
       <c r="E185" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F185" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -4799,14 +4807,14 @@
         <v>92500000</v>
       </c>
       <c r="C186" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D186" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>3500</v>
       </c>
       <c r="E186" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F186" s="1">
         <f t="shared" si="5"/>
@@ -4821,14 +4829,14 @@
         <v>93000000</v>
       </c>
       <c r="C187" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D187" s="1">
         <f t="shared" si="4"/>
-        <v>3000000</v>
+        <v>5500</v>
       </c>
       <c r="E187" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F187" s="1">
         <f t="shared" si="5"/>
@@ -4843,18 +4851,18 @@
         <v>93500000</v>
       </c>
       <c r="C188" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D188" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>60000</v>
       </c>
       <c r="E188" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F188" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
@@ -4865,14 +4873,14 @@
         <v>94000000</v>
       </c>
       <c r="C189" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D189" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>3500000</v>
       </c>
       <c r="E189" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F189" s="1">
         <f t="shared" si="5"/>
@@ -4887,18 +4895,18 @@
         <v>94500000</v>
       </c>
       <c r="C190" s="9">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D190" s="1">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E190" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F190" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -4909,18 +4917,18 @@
         <v>95000000</v>
       </c>
       <c r="C191" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D191" s="1">
         <f t="shared" si="4"/>
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="E191" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F191" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -4931,18 +4939,18 @@
         <v>95500000</v>
       </c>
       <c r="C192" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D192" s="1">
         <f t="shared" si="4"/>
-        <v>15000</v>
+        <v>1200</v>
       </c>
       <c r="E192" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F192" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -4953,14 +4961,14 @@
         <v>96000000</v>
       </c>
       <c r="C193" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D193" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>3500</v>
       </c>
       <c r="E193" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F193" s="1">
         <f t="shared" si="5"/>
@@ -4975,14 +4983,14 @@
         <v>96500000</v>
       </c>
       <c r="C194" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D194" s="1">
         <f t="shared" si="4"/>
-        <v>3000000</v>
+        <v>5500</v>
       </c>
       <c r="E194" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F194" s="1">
         <f t="shared" si="5"/>
@@ -4997,18 +5005,18 @@
         <v>97000000</v>
       </c>
       <c r="C195" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D195" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>60000</v>
       </c>
       <c r="E195" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F195" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
@@ -5019,14 +5027,14 @@
         <v>97500000</v>
       </c>
       <c r="C196" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D196" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>3500000</v>
       </c>
       <c r="E196" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F196" s="1">
         <f t="shared" si="5"/>
@@ -5041,20 +5049,20 @@
         <v>98000000</v>
       </c>
       <c r="C197" s="9">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D197" s="1">
-        <f t="shared" ref="D197:D201" si="6">IF(C197=9043,30000,
-IF(C197=9032,3000000,
-IF(C197=9026,30000,
-IF(C197=9016,1000,
-IF(C197=9008,50000,
-IF(C197=9010,15000,
+        <f t="shared" ref="D197:D201" si="6">IF(C197=9043,60000,
+IF(C197=9032,3500000,
+IF(C197=9026,35000,
+IF(C197=9016,1200,
+IF(C197=9062,3500,
+IF(C197=9049,5500,
 IF(C197=9028,1)))))))</f>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E197" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F197" s="1">
         <f t="shared" ref="F197:F201" si="7">IF(E197=9044,1,
@@ -5062,9 +5070,9 @@
 IF(E197=9028,2,
 IF(E197=9027,1,
 IF(E197=9017,1,
-IF(E197=9023,2,
-IF(E197=9009,2)))))))</f>
-        <v>1</v>
+IF(E197=9063,1,
+IF(E197=9050,1)))))))</f>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
@@ -5075,18 +5083,18 @@
         <v>98500000</v>
       </c>
       <c r="C198" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D198" s="1">
         <f t="shared" si="6"/>
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="E198" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F198" s="1">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -5097,18 +5105,18 @@
         <v>99000000</v>
       </c>
       <c r="C199" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D199" s="1">
         <f t="shared" si="6"/>
-        <v>15000</v>
+        <v>1200</v>
       </c>
       <c r="E199" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F199" s="1">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -5118,15 +5126,15 @@
       <c r="B200" s="1">
         <v>99500000</v>
       </c>
-      <c r="C200" s="9">
-        <v>9043</v>
+      <c r="C200" s="1">
+        <v>9062</v>
       </c>
       <c r="D200" s="1">
         <f t="shared" si="6"/>
-        <v>30000</v>
+        <v>3500</v>
       </c>
       <c r="E200" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F200" s="1">
         <f t="shared" si="7"/>
@@ -5141,14 +5149,14 @@
         <v>100000000</v>
       </c>
       <c r="C201" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D201" s="1">
         <f t="shared" si="6"/>
-        <v>3000000</v>
+        <v>5500</v>
       </c>
       <c r="E201" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F201" s="1">
         <f t="shared" si="7"/>
@@ -5164,10 +5172,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B5FDB1-0DA9-4220-B18D-A891CDB262A0}">
-  <dimension ref="B3:J65"/>
+  <dimension ref="B3:J72"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5258,7 +5266,7 @@
       </c>
       <c r="J8">
         <f ca="1">SUMIF(monthpass2!E:F,balance!G8,monthpass2!F:F)</f>
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
@@ -5307,7 +5315,7 @@
       </c>
       <c r="J11">
         <f ca="1">SUMIF(monthpass2!E:F,balance!G11,monthpass2!F:F)</f>
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
@@ -5398,7 +5406,7 @@
       </c>
       <c r="J15">
         <f ca="1">SUMIF(monthpass2!E:F,balance!G15,monthpass2!F:F)</f>
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
@@ -5419,7 +5427,7 @@
       </c>
       <c r="J16">
         <f ca="1">SUMIF(monthpass2!E:F,balance!G16,monthpass2!F:F)</f>
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
@@ -5504,7 +5512,7 @@
       </c>
       <c r="E23" s="10">
         <f ca="1">SUMIF(monthpass2!C:D,balance!B23,monthpass2!D:D)</f>
-        <v>420000</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>9010</v>
@@ -5525,7 +5533,7 @@
       </c>
       <c r="E24" s="10">
         <f ca="1">SUMIF(monthpass2!C:D,balance!B24,monthpass2!D:D)</f>
-        <v>1400000</v>
+        <v>0</v>
       </c>
       <c r="F24" t="s">
         <v>37</v>
@@ -5549,7 +5557,7 @@
       </c>
       <c r="E25" s="10">
         <f ca="1">SUMIF(monthpass2!C:D,balance!B25,monthpass2!D:D)</f>
-        <v>28000</v>
+        <v>33600</v>
       </c>
       <c r="F25" t="s">
         <v>36</v>
@@ -5573,7 +5581,7 @@
       </c>
       <c r="E26" s="10">
         <f ca="1">SUMIF(monthpass2!C:D,balance!B26,monthpass2!D:D)</f>
-        <v>840000</v>
+        <v>980000</v>
       </c>
       <c r="F26" t="s">
         <v>34</v>
@@ -5597,7 +5605,7 @@
       </c>
       <c r="E27" s="10">
         <f ca="1">SUMIF(monthpass2!C:D,balance!B27,monthpass2!D:D)</f>
-        <v>87000000</v>
+        <v>98000000</v>
       </c>
       <c r="F27" t="s">
         <v>35</v>
@@ -5621,7 +5629,7 @@
       </c>
       <c r="E28" s="10">
         <f ca="1">SUMIF(monthpass2!C:D,balance!B28,monthpass2!D:D)</f>
-        <v>870000</v>
+        <v>1680000</v>
       </c>
       <c r="F28" t="s">
         <v>34</v>
@@ -5747,7 +5755,7 @@
       </c>
       <c r="E45">
         <f>SUMIF(monthpass2!E:E,balance!B45,monthpass2!F:F)</f>
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
@@ -5795,7 +5803,7 @@
       </c>
       <c r="E48">
         <f>SUMIF(monthpass2!E:E,balance!B48,monthpass2!F:F)</f>
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
@@ -5859,7 +5867,7 @@
       </c>
       <c r="E52">
         <f>SUMIF(monthpass2!E:E,balance!B52,monthpass2!F:F)</f>
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
@@ -5875,7 +5883,7 @@
       </c>
       <c r="E53">
         <f>SUMIF(monthpass2!E:E,balance!B53,monthpass2!F:F)</f>
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
@@ -5967,7 +5975,7 @@
       </c>
       <c r="D60">
         <f>SUMIF(monthpass2!C:C,balance!B60,monthpass2!D:D)</f>
-        <v>420000</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <f>SUMIF(monthpass2!E:E,balance!B60,monthpass2!F:F)</f>
@@ -5983,7 +5991,7 @@
       </c>
       <c r="D61">
         <f>SUMIF(monthpass2!C:C,balance!B61,monthpass2!D:D)</f>
-        <v>1400000</v>
+        <v>0</v>
       </c>
       <c r="E61">
         <f>SUMIF(monthpass2!E:E,balance!B61,monthpass2!F:F)</f>
@@ -5999,7 +6007,7 @@
       </c>
       <c r="D62">
         <f>SUMIF(monthpass2!C:C,balance!B62,monthpass2!D:D)</f>
-        <v>28000</v>
+        <v>33600</v>
       </c>
       <c r="E62">
         <f>SUMIF(monthpass2!E:E,balance!B62,monthpass2!F:F)</f>
@@ -6015,7 +6023,7 @@
       </c>
       <c r="D63">
         <f>SUMIF(monthpass2!C:C,balance!B63,monthpass2!D:D)</f>
-        <v>840000</v>
+        <v>980000</v>
       </c>
       <c r="E63">
         <f>SUMIF(monthpass2!E:E,balance!B63,monthpass2!F:F)</f>
@@ -6031,7 +6039,7 @@
       </c>
       <c r="D64">
         <f>SUMIF(monthpass2!C:C,balance!B64,monthpass2!D:D)</f>
-        <v>87000000</v>
+        <v>98000000</v>
       </c>
       <c r="E64">
         <f>SUMIF(monthpass2!E:E,balance!B64,monthpass2!F:F)</f>
@@ -6047,10 +6055,122 @@
       </c>
       <c r="D65">
         <f>SUMIF(monthpass2!C:C,balance!B65,monthpass2!D:D)</f>
-        <v>870000</v>
+        <v>1680000</v>
       </c>
       <c r="E65">
         <f>SUMIF(monthpass2!E:E,balance!B65,monthpass2!F:F)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>9062</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D66">
+        <f>SUMIF(monthpass2!C:C,balance!B66,monthpass2!D:D)</f>
+        <v>101500</v>
+      </c>
+      <c r="E66">
+        <f>SUMIF(monthpass2!E:E,balance!B66,monthpass2!F:F)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>9049</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D67">
+        <f>SUMIF(monthpass2!C:C,balance!B67,monthpass2!D:D)</f>
+        <v>159500</v>
+      </c>
+      <c r="E67">
+        <f>SUMIF(monthpass2!E:E,balance!B67,monthpass2!F:F)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>9043</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D68">
+        <f>SUMIF(monthpass2!C:C,balance!B68,monthpass2!D:D)</f>
+        <v>1680000</v>
+      </c>
+      <c r="E68">
+        <f>SUMIF(monthpass2!E:E,balance!B68,monthpass2!F:F)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>9032</v>
+      </c>
+      <c r="C69" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69">
+        <f>SUMIF(monthpass2!C:C,balance!B69,monthpass2!D:D)</f>
+        <v>98000000</v>
+      </c>
+      <c r="E69">
+        <f>SUMIF(monthpass2!E:E,balance!B69,monthpass2!F:F)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>9028</v>
+      </c>
+      <c r="C70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70">
+        <f>SUMIF(monthpass2!C:C,balance!B70,monthpass2!D:D)</f>
+        <v>28</v>
+      </c>
+      <c r="E70">
+        <f>SUMIF(monthpass2!E:E,balance!B70,monthpass2!F:F)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>9026</v>
+      </c>
+      <c r="C71" t="s">
+        <v>29</v>
+      </c>
+      <c r="D71">
+        <f>SUMIF(monthpass2!C:C,balance!B71,monthpass2!D:D)</f>
+        <v>980000</v>
+      </c>
+      <c r="E71">
+        <f>SUMIF(monthpass2!E:E,balance!B71,monthpass2!F:F)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>9016</v>
+      </c>
+      <c r="C72" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72">
+        <f>SUMIF(monthpass2!C:C,balance!B72,monthpass2!D:D)</f>
+        <v>33600</v>
+      </c>
+      <c r="E72">
+        <f>SUMIF(monthpass2!E:E,balance!B72,monthpass2!F:F)</f>
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/MonthlyPass2.xlsx
+++ b/Assets/06.Table/MonthlyPass2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29D3A03-EACB-4C78-88D3-2F6EA3BB8A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526F0D39-7C5F-4499-A607-9FB3D8741935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -374,9 +374,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -414,7 +414,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -520,7 +520,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -662,7 +662,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -673,7 +673,7 @@
   <dimension ref="A1:J201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -714,13 +714,13 @@
         <v>500000</v>
       </c>
       <c r="C2" s="4">
-        <v>2015</v>
+        <v>2024</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" s="3">
-        <v>1502</v>
+        <v>1524</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -757,14 +757,14 @@
         <v>9062</v>
       </c>
       <c r="D4" s="1">
-        <f>IF(C4=9043,60000,
-IF(C4=9032,3500000,
-IF(C4=9026,35000,
-IF(C4=9016,1200,
-IF(C4=9062,3500,
-IF(C4=9049,5500,
+        <f>IF(C4=9043,80000,
+IF(C4=9032,4500000,
+IF(C4=9026,45000,
+IF(C4=9016,1600,
+IF(C4=9062,4500,
+IF(C4=9049,6500,
 IF(C4=9028,1)))))))</f>
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="E4" s="1">
         <v>9063</v>
@@ -791,14 +791,14 @@
         <v>9049</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D68" si="0">IF(C5=9043,60000,
-IF(C5=9032,3500000,
-IF(C5=9026,35000,
-IF(C5=9016,1200,
-IF(C5=9062,3500,
-IF(C5=9049,5500,
+        <f t="shared" ref="D5:D68" si="0">IF(C5=9043,80000,
+IF(C5=9032,4500000,
+IF(C5=9026,45000,
+IF(C5=9016,1600,
+IF(C5=9062,4500,
+IF(C5=9049,6500,
 IF(C5=9028,1)))))))</f>
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="E5" s="1">
         <v>9050</v>
@@ -826,7 +826,7 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="E6" s="1">
         <v>9044</v>
@@ -848,7 +848,7 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>3500000</v>
+        <v>4500000</v>
       </c>
       <c r="E7" s="1">
         <v>9033</v>
@@ -892,7 +892,7 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="E9" s="1">
         <v>9027</v>
@@ -914,7 +914,7 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E10" s="1">
         <v>9017</v>
@@ -936,7 +936,7 @@
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="E11" s="1">
         <v>9063</v>
@@ -958,7 +958,7 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="E12" s="1">
         <v>9050</v>
@@ -981,7 +981,7 @@
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="E13" s="1">
         <v>9044</v>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>3500000</v>
+        <v>4500000</v>
       </c>
       <c r="E14" s="1">
         <v>9033</v>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="E16" s="1">
         <v>9027</v>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E17" s="1">
         <v>9017</v>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="E18" s="1">
         <v>9063</v>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="E19" s="1">
         <v>9050</v>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="E20" s="1">
         <v>9044</v>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
-        <v>3500000</v>
+        <v>4500000</v>
       </c>
       <c r="E21" s="1">
         <v>9033</v>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="E23" s="1">
         <v>9027</v>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E24" s="1">
         <v>9017</v>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="D25" s="1">
         <f t="shared" si="0"/>
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="E25" s="1">
         <v>9063</v>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="E26" s="1">
         <v>9050</v>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="E27" s="1">
         <v>9044</v>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="D28" s="1">
         <f t="shared" si="0"/>
-        <v>3500000</v>
+        <v>4500000</v>
       </c>
       <c r="E28" s="1">
         <v>9033</v>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="D30" s="1">
         <f t="shared" si="0"/>
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="E30" s="1">
         <v>9027</v>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="D31" s="1">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E31" s="1">
         <v>9017</v>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="D32" s="1">
         <f t="shared" si="0"/>
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="E32" s="1">
         <v>9063</v>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="D33" s="1">
         <f t="shared" si="0"/>
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="E33" s="1">
         <v>9050</v>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="D34" s="1">
         <f t="shared" si="0"/>
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="E34" s="1">
         <v>9044</v>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="D35" s="1">
         <f t="shared" si="0"/>
-        <v>3500000</v>
+        <v>4500000</v>
       </c>
       <c r="E35" s="1">
         <v>9033</v>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="D37" s="1">
         <f t="shared" si="0"/>
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="E37" s="1">
         <v>9027</v>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="D38" s="1">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E38" s="1">
         <v>9017</v>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="D39" s="1">
         <f t="shared" si="0"/>
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="E39" s="1">
         <v>9063</v>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="D40" s="1">
         <f t="shared" si="0"/>
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="E40" s="1">
         <v>9050</v>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="D41" s="1">
         <f t="shared" si="0"/>
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="E41" s="1">
         <v>9044</v>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="D42" s="1">
         <f t="shared" si="0"/>
-        <v>3500000</v>
+        <v>4500000</v>
       </c>
       <c r="E42" s="1">
         <v>9033</v>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="D44" s="1">
         <f t="shared" si="0"/>
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="E44" s="1">
         <v>9027</v>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="D45" s="1">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E45" s="1">
         <v>9017</v>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="D46" s="1">
         <f t="shared" si="0"/>
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="E46" s="1">
         <v>9063</v>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="D47" s="1">
         <f t="shared" si="0"/>
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="E47" s="1">
         <v>9050</v>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="D48" s="1">
         <f t="shared" si="0"/>
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="E48" s="1">
         <v>9044</v>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="D49" s="1">
         <f t="shared" si="0"/>
-        <v>3500000</v>
+        <v>4500000</v>
       </c>
       <c r="E49" s="1">
         <v>9033</v>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="D51" s="1">
         <f t="shared" si="0"/>
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="E51" s="1">
         <v>9027</v>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="D52" s="1">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E52" s="1">
         <v>9017</v>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="D53" s="1">
         <f t="shared" si="0"/>
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="E53" s="1">
         <v>9063</v>
@@ -1883,7 +1883,7 @@
       </c>
       <c r="D54" s="1">
         <f t="shared" si="0"/>
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="E54" s="1">
         <v>9050</v>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="D55" s="1">
         <f t="shared" si="0"/>
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="E55" s="1">
         <v>9044</v>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="D56" s="1">
         <f t="shared" si="0"/>
-        <v>3500000</v>
+        <v>4500000</v>
       </c>
       <c r="E56" s="1">
         <v>9033</v>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="D58" s="1">
         <f t="shared" si="0"/>
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="E58" s="1">
         <v>9027</v>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="D59" s="1">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E59" s="1">
         <v>9017</v>
@@ -2015,7 +2015,7 @@
       </c>
       <c r="D60" s="1">
         <f t="shared" si="0"/>
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="E60" s="1">
         <v>9063</v>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="D61" s="1">
         <f t="shared" si="0"/>
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="E61" s="1">
         <v>9050</v>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="D62" s="1">
         <f t="shared" si="0"/>
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="E62" s="1">
         <v>9044</v>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="D63" s="1">
         <f t="shared" si="0"/>
-        <v>3500000</v>
+        <v>4500000</v>
       </c>
       <c r="E63" s="1">
         <v>9033</v>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="D65" s="1">
         <f t="shared" si="0"/>
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="E65" s="1">
         <v>9027</v>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="D66" s="1">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E66" s="1">
         <v>9017</v>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="D67" s="1">
         <f t="shared" si="0"/>
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="E67" s="1">
         <v>9063</v>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="D68" s="1">
         <f t="shared" si="0"/>
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="E68" s="1">
         <v>9050</v>
@@ -2212,14 +2212,14 @@
         <v>9043</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" ref="D69:D132" si="2">IF(C69=9043,60000,
-IF(C69=9032,3500000,
-IF(C69=9026,35000,
-IF(C69=9016,1200,
-IF(C69=9062,3500,
-IF(C69=9049,5500,
+        <f t="shared" ref="D69:D132" si="2">IF(C69=9043,80000,
+IF(C69=9032,4500000,
+IF(C69=9026,45000,
+IF(C69=9016,1600,
+IF(C69=9062,4500,
+IF(C69=9049,6500,
 IF(C69=9028,1)))))))</f>
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="E69" s="1">
         <v>9044</v>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="D70" s="1">
         <f t="shared" si="2"/>
-        <v>3500000</v>
+        <v>4500000</v>
       </c>
       <c r="E70" s="1">
         <v>9033</v>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="D72" s="1">
         <f t="shared" si="2"/>
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="E72" s="1">
         <v>9027</v>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="D73" s="1">
         <f t="shared" si="2"/>
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E73" s="1">
         <v>9017</v>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="D74" s="1">
         <f t="shared" si="2"/>
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="E74" s="1">
         <v>9063</v>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="D75" s="1">
         <f t="shared" si="2"/>
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="E75" s="1">
         <v>9050</v>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="D76" s="1">
         <f t="shared" si="2"/>
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="E76" s="1">
         <v>9044</v>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="D77" s="1">
         <f t="shared" si="2"/>
-        <v>3500000</v>
+        <v>4500000</v>
       </c>
       <c r="E77" s="1">
         <v>9033</v>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="D79" s="1">
         <f t="shared" si="2"/>
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="E79" s="1">
         <v>9027</v>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="D80" s="1">
         <f t="shared" si="2"/>
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E80" s="1">
         <v>9017</v>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="D81" s="1">
         <f t="shared" si="2"/>
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="E81" s="1">
         <v>9063</v>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="D82" s="1">
         <f t="shared" si="2"/>
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="E82" s="1">
         <v>9050</v>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="D83" s="1">
         <f t="shared" si="2"/>
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="E83" s="1">
         <v>9044</v>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="D84" s="1">
         <f t="shared" si="2"/>
-        <v>3500000</v>
+        <v>4500000</v>
       </c>
       <c r="E84" s="1">
         <v>9033</v>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="D86" s="1">
         <f t="shared" si="2"/>
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="E86" s="1">
         <v>9027</v>
@@ -2621,7 +2621,7 @@
       </c>
       <c r="D87" s="1">
         <f t="shared" si="2"/>
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E87" s="1">
         <v>9017</v>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="D88" s="1">
         <f t="shared" si="2"/>
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="E88" s="1">
         <v>9063</v>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="D89" s="1">
         <f t="shared" si="2"/>
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="E89" s="1">
         <v>9050</v>
@@ -2687,7 +2687,7 @@
       </c>
       <c r="D90" s="1">
         <f t="shared" si="2"/>
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="E90" s="1">
         <v>9044</v>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="D91" s="1">
         <f t="shared" si="2"/>
-        <v>3500000</v>
+        <v>4500000</v>
       </c>
       <c r="E91" s="1">
         <v>9033</v>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="D93" s="1">
         <f t="shared" si="2"/>
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="E93" s="1">
         <v>9027</v>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="D94" s="1">
         <f t="shared" si="2"/>
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E94" s="1">
         <v>9017</v>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="D95" s="1">
         <f t="shared" si="2"/>
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="E95" s="1">
         <v>9063</v>
@@ -2819,7 +2819,7 @@
       </c>
       <c r="D96" s="1">
         <f t="shared" si="2"/>
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="E96" s="1">
         <v>9050</v>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="D97" s="1">
         <f t="shared" si="2"/>
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="E97" s="1">
         <v>9044</v>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="D98" s="1">
         <f t="shared" si="2"/>
-        <v>3500000</v>
+        <v>4500000</v>
       </c>
       <c r="E98" s="1">
         <v>9033</v>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="D100" s="1">
         <f t="shared" si="2"/>
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="E100" s="1">
         <v>9027</v>
@@ -2929,7 +2929,7 @@
       </c>
       <c r="D101" s="1">
         <f t="shared" si="2"/>
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E101" s="1">
         <v>9017</v>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="D102" s="1">
         <f t="shared" si="2"/>
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="E102" s="1">
         <v>9063</v>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="D103" s="1">
         <f t="shared" si="2"/>
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="E103" s="1">
         <v>9050</v>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="D104" s="1">
         <f t="shared" si="2"/>
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="E104" s="1">
         <v>9044</v>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="D105" s="1">
         <f t="shared" si="2"/>
-        <v>3500000</v>
+        <v>4500000</v>
       </c>
       <c r="E105" s="1">
         <v>9033</v>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="D107" s="1">
         <f t="shared" si="2"/>
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="E107" s="1">
         <v>9027</v>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="D108" s="1">
         <f t="shared" si="2"/>
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E108" s="1">
         <v>9017</v>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="D109" s="1">
         <f t="shared" si="2"/>
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="E109" s="1">
         <v>9063</v>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="D110" s="1">
         <f t="shared" si="2"/>
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="E110" s="1">
         <v>9050</v>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="D111" s="1">
         <f t="shared" si="2"/>
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="E111" s="1">
         <v>9044</v>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="D112" s="1">
         <f t="shared" si="2"/>
-        <v>3500000</v>
+        <v>4500000</v>
       </c>
       <c r="E112" s="1">
         <v>9033</v>
@@ -3215,7 +3215,7 @@
       </c>
       <c r="D114" s="1">
         <f t="shared" si="2"/>
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="E114" s="1">
         <v>9027</v>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="D115" s="1">
         <f t="shared" si="2"/>
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E115" s="1">
         <v>9017</v>
@@ -3259,7 +3259,7 @@
       </c>
       <c r="D116" s="1">
         <f t="shared" si="2"/>
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="E116" s="1">
         <v>9063</v>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="D117" s="1">
         <f t="shared" si="2"/>
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="E117" s="1">
         <v>9050</v>
@@ -3303,7 +3303,7 @@
       </c>
       <c r="D118" s="1">
         <f t="shared" si="2"/>
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="E118" s="1">
         <v>9044</v>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="D119" s="1">
         <f t="shared" si="2"/>
-        <v>3500000</v>
+        <v>4500000</v>
       </c>
       <c r="E119" s="1">
         <v>9033</v>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="D121" s="1">
         <f t="shared" si="2"/>
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="E121" s="1">
         <v>9027</v>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="D122" s="1">
         <f t="shared" si="2"/>
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E122" s="1">
         <v>9017</v>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="D123" s="1">
         <f t="shared" si="2"/>
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="E123" s="1">
         <v>9063</v>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="D124" s="1">
         <f t="shared" si="2"/>
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="E124" s="1">
         <v>9050</v>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="D125" s="1">
         <f t="shared" si="2"/>
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="E125" s="1">
         <v>9044</v>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="D126" s="1">
         <f t="shared" si="2"/>
-        <v>3500000</v>
+        <v>4500000</v>
       </c>
       <c r="E126" s="1">
         <v>9033</v>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="D128" s="1">
         <f t="shared" si="2"/>
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="E128" s="1">
         <v>9027</v>
@@ -3545,7 +3545,7 @@
       </c>
       <c r="D129" s="1">
         <f t="shared" si="2"/>
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E129" s="1">
         <v>9017</v>
@@ -3567,7 +3567,7 @@
       </c>
       <c r="D130" s="1">
         <f t="shared" si="2"/>
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="E130" s="1">
         <v>9063</v>
@@ -3589,7 +3589,7 @@
       </c>
       <c r="D131" s="1">
         <f t="shared" si="2"/>
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="E131" s="1">
         <v>9050</v>
@@ -3611,7 +3611,7 @@
       </c>
       <c r="D132" s="1">
         <f t="shared" si="2"/>
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="E132" s="1">
         <v>9044</v>
@@ -3632,14 +3632,14 @@
         <v>9032</v>
       </c>
       <c r="D133" s="1">
-        <f t="shared" ref="D133:D196" si="4">IF(C133=9043,60000,
-IF(C133=9032,3500000,
-IF(C133=9026,35000,
-IF(C133=9016,1200,
-IF(C133=9062,3500,
-IF(C133=9049,5500,
+        <f t="shared" ref="D133:D196" si="4">IF(C133=9043,80000,
+IF(C133=9032,4500000,
+IF(C133=9026,45000,
+IF(C133=9016,1600,
+IF(C133=9062,4500,
+IF(C133=9049,6500,
 IF(C133=9028,1)))))))</f>
-        <v>3500000</v>
+        <v>4500000</v>
       </c>
       <c r="E133" s="1">
         <v>9033</v>
@@ -3689,7 +3689,7 @@
       </c>
       <c r="D135" s="1">
         <f t="shared" si="4"/>
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="E135" s="1">
         <v>9027</v>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="D136" s="1">
         <f t="shared" si="4"/>
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E136" s="1">
         <v>9017</v>
@@ -3733,7 +3733,7 @@
       </c>
       <c r="D137" s="1">
         <f t="shared" si="4"/>
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="E137" s="1">
         <v>9063</v>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="D138" s="1">
         <f t="shared" si="4"/>
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="E138" s="1">
         <v>9050</v>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="D139" s="1">
         <f t="shared" si="4"/>
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="E139" s="1">
         <v>9044</v>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="D140" s="1">
         <f t="shared" si="4"/>
-        <v>3500000</v>
+        <v>4500000</v>
       </c>
       <c r="E140" s="1">
         <v>9033</v>
@@ -3843,7 +3843,7 @@
       </c>
       <c r="D142" s="1">
         <f t="shared" si="4"/>
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="E142" s="1">
         <v>9027</v>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="D143" s="1">
         <f t="shared" si="4"/>
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E143" s="1">
         <v>9017</v>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="D144" s="1">
         <f t="shared" si="4"/>
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="E144" s="1">
         <v>9063</v>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="D145" s="1">
         <f t="shared" si="4"/>
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="E145" s="1">
         <v>9050</v>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="D146" s="1">
         <f t="shared" si="4"/>
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="E146" s="1">
         <v>9044</v>
@@ -3953,7 +3953,7 @@
       </c>
       <c r="D147" s="1">
         <f t="shared" si="4"/>
-        <v>3500000</v>
+        <v>4500000</v>
       </c>
       <c r="E147" s="1">
         <v>9033</v>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="D149" s="1">
         <f t="shared" si="4"/>
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="E149" s="1">
         <v>9027</v>
@@ -4019,7 +4019,7 @@
       </c>
       <c r="D150" s="1">
         <f t="shared" si="4"/>
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E150" s="1">
         <v>9017</v>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="D151" s="1">
         <f t="shared" si="4"/>
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="E151" s="1">
         <v>9063</v>
@@ -4063,7 +4063,7 @@
       </c>
       <c r="D152" s="1">
         <f t="shared" si="4"/>
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="E152" s="1">
         <v>9050</v>
@@ -4085,7 +4085,7 @@
       </c>
       <c r="D153" s="1">
         <f t="shared" si="4"/>
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="E153" s="1">
         <v>9044</v>
@@ -4107,7 +4107,7 @@
       </c>
       <c r="D154" s="1">
         <f t="shared" si="4"/>
-        <v>3500000</v>
+        <v>4500000</v>
       </c>
       <c r="E154" s="1">
         <v>9033</v>
@@ -4151,7 +4151,7 @@
       </c>
       <c r="D156" s="1">
         <f t="shared" si="4"/>
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="E156" s="1">
         <v>9027</v>
@@ -4173,7 +4173,7 @@
       </c>
       <c r="D157" s="1">
         <f t="shared" si="4"/>
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E157" s="1">
         <v>9017</v>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="D158" s="1">
         <f t="shared" si="4"/>
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="E158" s="1">
         <v>9063</v>
@@ -4217,7 +4217,7 @@
       </c>
       <c r="D159" s="1">
         <f t="shared" si="4"/>
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="E159" s="1">
         <v>9050</v>
@@ -4239,7 +4239,7 @@
       </c>
       <c r="D160" s="1">
         <f t="shared" si="4"/>
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="E160" s="1">
         <v>9044</v>
@@ -4261,7 +4261,7 @@
       </c>
       <c r="D161" s="1">
         <f t="shared" si="4"/>
-        <v>3500000</v>
+        <v>4500000</v>
       </c>
       <c r="E161" s="1">
         <v>9033</v>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="D163" s="1">
         <f t="shared" si="4"/>
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="E163" s="1">
         <v>9027</v>
@@ -4327,7 +4327,7 @@
       </c>
       <c r="D164" s="1">
         <f t="shared" si="4"/>
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E164" s="1">
         <v>9017</v>
@@ -4349,7 +4349,7 @@
       </c>
       <c r="D165" s="1">
         <f t="shared" si="4"/>
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="E165" s="1">
         <v>9063</v>
@@ -4371,7 +4371,7 @@
       </c>
       <c r="D166" s="1">
         <f t="shared" si="4"/>
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="E166" s="1">
         <v>9050</v>
@@ -4393,7 +4393,7 @@
       </c>
       <c r="D167" s="1">
         <f t="shared" si="4"/>
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="E167" s="1">
         <v>9044</v>
@@ -4415,7 +4415,7 @@
       </c>
       <c r="D168" s="1">
         <f t="shared" si="4"/>
-        <v>3500000</v>
+        <v>4500000</v>
       </c>
       <c r="E168" s="1">
         <v>9033</v>
@@ -4459,7 +4459,7 @@
       </c>
       <c r="D170" s="1">
         <f t="shared" si="4"/>
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="E170" s="1">
         <v>9027</v>
@@ -4481,7 +4481,7 @@
       </c>
       <c r="D171" s="1">
         <f t="shared" si="4"/>
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E171" s="1">
         <v>9017</v>
@@ -4503,7 +4503,7 @@
       </c>
       <c r="D172" s="1">
         <f t="shared" si="4"/>
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="E172" s="1">
         <v>9063</v>
@@ -4525,7 +4525,7 @@
       </c>
       <c r="D173" s="1">
         <f t="shared" si="4"/>
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="E173" s="1">
         <v>9050</v>
@@ -4547,7 +4547,7 @@
       </c>
       <c r="D174" s="1">
         <f t="shared" si="4"/>
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="E174" s="1">
         <v>9044</v>
@@ -4569,7 +4569,7 @@
       </c>
       <c r="D175" s="1">
         <f t="shared" si="4"/>
-        <v>3500000</v>
+        <v>4500000</v>
       </c>
       <c r="E175" s="1">
         <v>9033</v>
@@ -4613,7 +4613,7 @@
       </c>
       <c r="D177" s="1">
         <f t="shared" si="4"/>
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="E177" s="1">
         <v>9027</v>
@@ -4635,7 +4635,7 @@
       </c>
       <c r="D178" s="1">
         <f t="shared" si="4"/>
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E178" s="1">
         <v>9017</v>
@@ -4657,7 +4657,7 @@
       </c>
       <c r="D179" s="1">
         <f t="shared" si="4"/>
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="E179" s="1">
         <v>9063</v>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="D180" s="1">
         <f t="shared" si="4"/>
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="E180" s="1">
         <v>9050</v>
@@ -4701,7 +4701,7 @@
       </c>
       <c r="D181" s="1">
         <f t="shared" si="4"/>
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="E181" s="1">
         <v>9044</v>
@@ -4723,7 +4723,7 @@
       </c>
       <c r="D182" s="1">
         <f t="shared" si="4"/>
-        <v>3500000</v>
+        <v>4500000</v>
       </c>
       <c r="E182" s="1">
         <v>9033</v>
@@ -4767,7 +4767,7 @@
       </c>
       <c r="D184" s="1">
         <f t="shared" si="4"/>
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="E184" s="1">
         <v>9027</v>
@@ -4789,7 +4789,7 @@
       </c>
       <c r="D185" s="1">
         <f t="shared" si="4"/>
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E185" s="1">
         <v>9017</v>
@@ -4811,7 +4811,7 @@
       </c>
       <c r="D186" s="1">
         <f t="shared" si="4"/>
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="E186" s="1">
         <v>9063</v>
@@ -4833,7 +4833,7 @@
       </c>
       <c r="D187" s="1">
         <f t="shared" si="4"/>
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="E187" s="1">
         <v>9050</v>
@@ -4855,7 +4855,7 @@
       </c>
       <c r="D188" s="1">
         <f t="shared" si="4"/>
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="E188" s="1">
         <v>9044</v>
@@ -4877,7 +4877,7 @@
       </c>
       <c r="D189" s="1">
         <f t="shared" si="4"/>
-        <v>3500000</v>
+        <v>4500000</v>
       </c>
       <c r="E189" s="1">
         <v>9033</v>
@@ -4921,7 +4921,7 @@
       </c>
       <c r="D191" s="1">
         <f t="shared" si="4"/>
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="E191" s="1">
         <v>9027</v>
@@ -4943,7 +4943,7 @@
       </c>
       <c r="D192" s="1">
         <f t="shared" si="4"/>
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E192" s="1">
         <v>9017</v>
@@ -4965,7 +4965,7 @@
       </c>
       <c r="D193" s="1">
         <f t="shared" si="4"/>
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="E193" s="1">
         <v>9063</v>
@@ -4987,7 +4987,7 @@
       </c>
       <c r="D194" s="1">
         <f t="shared" si="4"/>
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="E194" s="1">
         <v>9050</v>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="D195" s="1">
         <f t="shared" si="4"/>
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="E195" s="1">
         <v>9044</v>
@@ -5031,7 +5031,7 @@
       </c>
       <c r="D196" s="1">
         <f t="shared" si="4"/>
-        <v>3500000</v>
+        <v>4500000</v>
       </c>
       <c r="E196" s="1">
         <v>9033</v>
@@ -5052,12 +5052,12 @@
         <v>9028</v>
       </c>
       <c r="D197" s="1">
-        <f t="shared" ref="D197:D201" si="6">IF(C197=9043,60000,
-IF(C197=9032,3500000,
-IF(C197=9026,35000,
-IF(C197=9016,1200,
-IF(C197=9062,3500,
-IF(C197=9049,5500,
+        <f t="shared" ref="D197:D201" si="6">IF(C197=9043,80000,
+IF(C197=9032,4500000,
+IF(C197=9026,45000,
+IF(C197=9016,1600,
+IF(C197=9062,4500,
+IF(C197=9049,6500,
 IF(C197=9028,1)))))))</f>
         <v>1</v>
       </c>
@@ -5087,7 +5087,7 @@
       </c>
       <c r="D198" s="1">
         <f t="shared" si="6"/>
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="E198" s="1">
         <v>9027</v>
@@ -5109,7 +5109,7 @@
       </c>
       <c r="D199" s="1">
         <f t="shared" si="6"/>
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E199" s="1">
         <v>9017</v>
@@ -5131,7 +5131,7 @@
       </c>
       <c r="D200" s="1">
         <f t="shared" si="6"/>
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="E200" s="1">
         <v>9063</v>
@@ -5153,7 +5153,7 @@
       </c>
       <c r="D201" s="1">
         <f t="shared" si="6"/>
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="E201" s="1">
         <v>9050</v>
@@ -5557,7 +5557,7 @@
       </c>
       <c r="E25" s="10">
         <f ca="1">SUMIF(monthpass2!C:D,balance!B25,monthpass2!D:D)</f>
-        <v>33600</v>
+        <v>44800</v>
       </c>
       <c r="F25" t="s">
         <v>36</v>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="E26" s="10">
         <f ca="1">SUMIF(monthpass2!C:D,balance!B26,monthpass2!D:D)</f>
-        <v>980000</v>
+        <v>1260000</v>
       </c>
       <c r="F26" t="s">
         <v>34</v>
@@ -5605,7 +5605,7 @@
       </c>
       <c r="E27" s="10">
         <f ca="1">SUMIF(monthpass2!C:D,balance!B27,monthpass2!D:D)</f>
-        <v>98000000</v>
+        <v>126000000</v>
       </c>
       <c r="F27" t="s">
         <v>35</v>
@@ -5629,7 +5629,7 @@
       </c>
       <c r="E28" s="10">
         <f ca="1">SUMIF(monthpass2!C:D,balance!B28,monthpass2!D:D)</f>
-        <v>1680000</v>
+        <v>2240000</v>
       </c>
       <c r="F28" t="s">
         <v>34</v>
@@ -6007,7 +6007,7 @@
       </c>
       <c r="D62">
         <f>SUMIF(monthpass2!C:C,balance!B62,monthpass2!D:D)</f>
-        <v>33600</v>
+        <v>44800</v>
       </c>
       <c r="E62">
         <f>SUMIF(monthpass2!E:E,balance!B62,monthpass2!F:F)</f>
@@ -6023,7 +6023,7 @@
       </c>
       <c r="D63">
         <f>SUMIF(monthpass2!C:C,balance!B63,monthpass2!D:D)</f>
-        <v>980000</v>
+        <v>1260000</v>
       </c>
       <c r="E63">
         <f>SUMIF(monthpass2!E:E,balance!B63,monthpass2!F:F)</f>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="D64">
         <f>SUMIF(monthpass2!C:C,balance!B64,monthpass2!D:D)</f>
-        <v>98000000</v>
+        <v>126000000</v>
       </c>
       <c r="E64">
         <f>SUMIF(monthpass2!E:E,balance!B64,monthpass2!F:F)</f>
@@ -6055,7 +6055,7 @@
       </c>
       <c r="D65">
         <f>SUMIF(monthpass2!C:C,balance!B65,monthpass2!D:D)</f>
-        <v>1680000</v>
+        <v>2240000</v>
       </c>
       <c r="E65">
         <f>SUMIF(monthpass2!E:E,balance!B65,monthpass2!F:F)</f>
@@ -6071,7 +6071,7 @@
       </c>
       <c r="D66">
         <f>SUMIF(monthpass2!C:C,balance!B66,monthpass2!D:D)</f>
-        <v>101500</v>
+        <v>130500</v>
       </c>
       <c r="E66">
         <f>SUMIF(monthpass2!E:E,balance!B66,monthpass2!F:F)</f>
@@ -6087,7 +6087,7 @@
       </c>
       <c r="D67">
         <f>SUMIF(monthpass2!C:C,balance!B67,monthpass2!D:D)</f>
-        <v>159500</v>
+        <v>188500</v>
       </c>
       <c r="E67">
         <f>SUMIF(monthpass2!E:E,balance!B67,monthpass2!F:F)</f>
@@ -6103,7 +6103,7 @@
       </c>
       <c r="D68">
         <f>SUMIF(monthpass2!C:C,balance!B68,monthpass2!D:D)</f>
-        <v>1680000</v>
+        <v>2240000</v>
       </c>
       <c r="E68">
         <f>SUMIF(monthpass2!E:E,balance!B68,monthpass2!F:F)</f>
@@ -6119,7 +6119,7 @@
       </c>
       <c r="D69">
         <f>SUMIF(monthpass2!C:C,balance!B69,monthpass2!D:D)</f>
-        <v>98000000</v>
+        <v>126000000</v>
       </c>
       <c r="E69">
         <f>SUMIF(monthpass2!E:E,balance!B69,monthpass2!F:F)</f>
@@ -6151,7 +6151,7 @@
       </c>
       <c r="D71">
         <f>SUMIF(monthpass2!C:C,balance!B71,monthpass2!D:D)</f>
-        <v>980000</v>
+        <v>1260000</v>
       </c>
       <c r="E71">
         <f>SUMIF(monthpass2!E:E,balance!B71,monthpass2!F:F)</f>
@@ -6167,7 +6167,7 @@
       </c>
       <c r="D72">
         <f>SUMIF(monthpass2!C:C,balance!B72,monthpass2!D:D)</f>
-        <v>33600</v>
+        <v>44800</v>
       </c>
       <c r="E72">
         <f>SUMIF(monthpass2!E:E,balance!B72,monthpass2!F:F)</f>

--- a/Assets/06.Table/MonthlyPass2.xlsx
+++ b/Assets/06.Table/MonthlyPass2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526F0D39-7C5F-4499-A607-9FB3D8741935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA24ACA1-63C5-457D-88C8-BB1EBF2C0D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -673,7 +673,7 @@
   <dimension ref="A1:J201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -714,13 +714,13 @@
         <v>500000</v>
       </c>
       <c r="C2" s="4">
-        <v>2024</v>
+        <v>2035</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" s="3">
-        <v>1524</v>
+        <v>1548</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -731,19 +731,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>1000000</v>
+        <v>5000000</v>
       </c>
       <c r="C3" s="2">
         <v>9039</v>
       </c>
       <c r="D3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2">
         <v>9039</v>
       </c>
       <c r="F3" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -751,33 +751,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>1500000</v>
+        <v>7500000</v>
       </c>
       <c r="C4" s="1">
-        <v>9062</v>
+        <v>9065</v>
       </c>
       <c r="D4" s="1">
-        <f>IF(C4=9043,80000,
-IF(C4=9032,4500000,
-IF(C4=9026,45000,
-IF(C4=9016,1600,
-IF(C4=9062,4500,
-IF(C4=9049,6500,
-IF(C4=9028,1)))))))</f>
-        <v>4500</v>
+        <v>30000</v>
       </c>
       <c r="E4" s="1">
-        <v>9063</v>
+        <v>9066</v>
       </c>
       <c r="F4" s="1">
-        <f>IF(E4=9044,1,
-IF(E4=9033,1,
-IF(E4=9028,2,
-IF(E4=9027,1,
-IF(E4=9017,1,
-IF(E4=9063,1,
-IF(E4=9050,1)))))))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -785,33 +771,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>2000000</v>
+        <v>10000000</v>
       </c>
       <c r="C5" s="1">
-        <v>9049</v>
+        <v>9064</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D68" si="0">IF(C5=9043,80000,
-IF(C5=9032,4500000,
-IF(C5=9026,45000,
-IF(C5=9016,1600,
-IF(C5=9062,4500,
-IF(C5=9049,6500,
-IF(C5=9028,1)))))))</f>
-        <v>6500</v>
+        <v>20000</v>
       </c>
       <c r="E5" s="1">
-        <v>9050</v>
+        <v>9064</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" ref="F5:F68" si="1">IF(E5=9044,1,
-IF(E5=9033,1,
-IF(E5=9028,2,
-IF(E5=9027,1,
-IF(E5=9017,1,
-IF(E5=9063,1,
-IF(E5=9050,1)))))))</f>
-        <v>1</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -819,21 +791,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>2500000</v>
+        <v>12500000</v>
       </c>
       <c r="C6" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="E6" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -841,21 +811,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>3000000</v>
+        <v>15000000</v>
       </c>
       <c r="C7" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>4500000</v>
+        <v>50000</v>
       </c>
       <c r="E7" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -863,21 +831,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>3500000</v>
+        <v>17500000</v>
       </c>
       <c r="C8" s="9">
-        <v>9028</v>
+        <v>9048</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>100000</v>
       </c>
       <c r="E8" s="1">
-        <v>9028</v>
+        <v>9048</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -885,21 +851,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>4000000</v>
+        <v>20000000</v>
       </c>
       <c r="C9" s="1">
-        <v>9026</v>
+        <v>9043</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>45000</v>
+        <v>5000000</v>
       </c>
       <c r="E9" s="1">
-        <v>9027</v>
+        <v>9044</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -907,21 +871,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>4500000</v>
+        <v>22500000</v>
       </c>
       <c r="C10" s="1">
-        <v>9016</v>
+        <v>9032</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>1600</v>
+        <v>100000000</v>
       </c>
       <c r="E10" s="1">
-        <v>9017</v>
+        <v>9033</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -929,21 +891,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>5000000</v>
+        <v>25000000</v>
       </c>
       <c r="C11" s="1">
-        <v>9062</v>
+        <v>9028</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>4500</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1">
-        <v>9063</v>
+        <v>9028</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -951,21 +911,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>5500000</v>
+        <v>27500000</v>
       </c>
       <c r="C12" s="1">
-        <v>9049</v>
+        <v>9026</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>6500</v>
+        <v>500000</v>
       </c>
       <c r="E12" s="1">
-        <v>9050</v>
+        <v>9027</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1"/>
     </row>
@@ -974,21 +932,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>6000000</v>
+        <v>30000000</v>
       </c>
       <c r="C13" s="1">
-        <v>9043</v>
+        <v>9016</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="E13" s="1">
-        <v>9044</v>
+        <v>9017</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -996,21 +952,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>6500000</v>
+        <v>32500000</v>
       </c>
       <c r="C14" s="1">
-        <v>9032</v>
+        <v>9010</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>4500000</v>
+        <v>1000000</v>
       </c>
       <c r="E14" s="1">
-        <v>9033</v>
+        <v>9023</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1018,21 +972,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>7000000</v>
+        <v>35000000</v>
       </c>
       <c r="C15" s="9">
-        <v>9028</v>
+        <v>9065</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>30000</v>
       </c>
       <c r="E15" s="1">
-        <v>9028</v>
+        <v>9066</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1040,21 +992,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>7500000</v>
+        <v>37500000</v>
       </c>
       <c r="C16" s="1">
-        <v>9026</v>
+        <v>9064</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="E16" s="1">
-        <v>9027</v>
+        <v>9064</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1062,21 +1012,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>8000000</v>
+        <v>40000000</v>
       </c>
       <c r="C17" s="1">
-        <v>9016</v>
+        <v>9062</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
-        <v>1600</v>
+        <v>50000</v>
       </c>
       <c r="E17" s="1">
-        <v>9017</v>
+        <v>9063</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1084,21 +1032,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>8500000</v>
+        <v>42500000</v>
       </c>
       <c r="C18" s="1">
-        <v>9062</v>
+        <v>9049</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
-        <v>4500</v>
+        <v>50000</v>
       </c>
       <c r="E18" s="1">
-        <v>9063</v>
+        <v>9050</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1106,21 +1052,19 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>9000000</v>
+        <v>45000000</v>
       </c>
       <c r="C19" s="1">
-        <v>9049</v>
+        <v>9048</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
-        <v>6500</v>
+        <v>100000</v>
       </c>
       <c r="E19" s="1">
-        <v>9050</v>
+        <v>9048</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1128,21 +1072,19 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>9500000</v>
+        <v>47500000</v>
       </c>
       <c r="C20" s="1">
         <v>9043</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
-        <v>80000</v>
+        <v>5000000</v>
       </c>
       <c r="E20" s="1">
         <v>9044</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1150,21 +1092,19 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
       <c r="C21" s="1">
         <v>9032</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="0"/>
-        <v>4500000</v>
+        <v>100000000</v>
       </c>
       <c r="E21" s="1">
         <v>9033</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1172,21 +1112,19 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>10500000</v>
+        <v>52500000</v>
       </c>
       <c r="C22" s="9">
         <v>9028</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E22" s="1">
         <v>9028</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1194,21 +1132,19 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>11000000</v>
+        <v>55000000</v>
       </c>
       <c r="C23" s="1">
         <v>9026</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="0"/>
-        <v>45000</v>
+        <v>500000</v>
       </c>
       <c r="E23" s="1">
         <v>9027</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1216,21 +1152,19 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>11500000</v>
+        <v>57500000</v>
       </c>
       <c r="C24" s="1">
         <v>9016</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="0"/>
-        <v>1600</v>
+        <v>30000</v>
       </c>
       <c r="E24" s="1">
         <v>9017</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1238,21 +1172,19 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>12000000</v>
+        <v>60000000</v>
       </c>
       <c r="C25" s="1">
-        <v>9062</v>
+        <v>9010</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
-        <v>4500</v>
+        <v>1000000</v>
       </c>
       <c r="E25" s="1">
-        <v>9063</v>
+        <v>9023</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1260,21 +1192,19 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>12500000</v>
+        <v>62500000</v>
       </c>
       <c r="C26" s="1">
-        <v>9049</v>
+        <v>9065</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
-        <v>6500</v>
+        <v>30000</v>
       </c>
       <c r="E26" s="1">
-        <v>9050</v>
+        <v>9066</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1282,21 +1212,19 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>13000000</v>
+        <v>65000000</v>
       </c>
       <c r="C27" s="1">
-        <v>9043</v>
+        <v>9064</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="0"/>
-        <v>80000</v>
+        <v>20000</v>
       </c>
       <c r="E27" s="1">
-        <v>9044</v>
+        <v>9064</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1304,21 +1232,19 @@
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>13500000</v>
+        <v>67500000</v>
       </c>
       <c r="C28" s="1">
-        <v>9032</v>
+        <v>9062</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="0"/>
-        <v>4500000</v>
+        <v>50000</v>
       </c>
       <c r="E28" s="1">
-        <v>9033</v>
+        <v>9063</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1326,21 +1252,19 @@
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>14000000</v>
+        <v>70000000</v>
       </c>
       <c r="C29" s="9">
-        <v>9028</v>
+        <v>9049</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="E29" s="1">
-        <v>9028</v>
+        <v>9050</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1348,21 +1272,19 @@
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>14500000</v>
+        <v>72500000</v>
       </c>
       <c r="C30" s="1">
-        <v>9026</v>
+        <v>9048</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="0"/>
-        <v>45000</v>
+        <v>100000</v>
       </c>
       <c r="E30" s="1">
-        <v>9027</v>
+        <v>9048</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1370,21 +1292,19 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>15000000</v>
+        <v>75000000</v>
       </c>
       <c r="C31" s="1">
-        <v>9016</v>
+        <v>9043</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="0"/>
-        <v>1600</v>
+        <v>5000000</v>
       </c>
       <c r="E31" s="1">
-        <v>9017</v>
+        <v>9044</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1392,21 +1312,19 @@
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>15500000</v>
+        <v>77500000</v>
       </c>
       <c r="C32" s="1">
-        <v>9062</v>
+        <v>9032</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="0"/>
-        <v>4500</v>
+        <v>100000000</v>
       </c>
       <c r="E32" s="1">
-        <v>9063</v>
+        <v>9033</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1414,21 +1332,19 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>16000000</v>
+        <v>80000000</v>
       </c>
       <c r="C33" s="1">
-        <v>9049</v>
+        <v>9028</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="0"/>
-        <v>6500</v>
+        <v>20</v>
       </c>
       <c r="E33" s="1">
-        <v>9050</v>
+        <v>9028</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1436,21 +1352,19 @@
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>16500000</v>
+        <v>82500000</v>
       </c>
       <c r="C34" s="1">
-        <v>9043</v>
+        <v>9026</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="0"/>
-        <v>80000</v>
+        <v>500000</v>
       </c>
       <c r="E34" s="1">
-        <v>9044</v>
+        <v>9027</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1458,21 +1372,19 @@
         <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>17000000</v>
+        <v>85000000</v>
       </c>
       <c r="C35" s="1">
-        <v>9032</v>
+        <v>9016</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="0"/>
-        <v>4500000</v>
+        <v>30000</v>
       </c>
       <c r="E35" s="1">
-        <v>9033</v>
+        <v>9017</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1480,21 +1392,19 @@
         <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>17500000</v>
+        <v>87500000</v>
       </c>
       <c r="C36" s="9">
-        <v>9028</v>
+        <v>9010</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1000000</v>
       </c>
       <c r="E36" s="1">
-        <v>9028</v>
+        <v>9023</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1502,21 +1412,19 @@
         <v>35</v>
       </c>
       <c r="B37" s="1">
-        <v>18000000</v>
+        <v>90000000</v>
       </c>
       <c r="C37" s="1">
-        <v>9026</v>
+        <v>9065</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="0"/>
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="E37" s="1">
-        <v>9027</v>
+        <v>9066</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1524,21 +1432,19 @@
         <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>18500000</v>
+        <v>92500000</v>
       </c>
       <c r="C38" s="1">
-        <v>9016</v>
+        <v>9064</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="0"/>
-        <v>1600</v>
+        <v>20000</v>
       </c>
       <c r="E38" s="1">
-        <v>9017</v>
+        <v>9064</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1546,21 +1452,19 @@
         <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>19000000</v>
+        <v>95000000</v>
       </c>
       <c r="C39" s="1">
         <v>9062</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="0"/>
-        <v>4500</v>
+        <v>50000</v>
       </c>
       <c r="E39" s="1">
         <v>9063</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1568,21 +1472,19 @@
         <v>38</v>
       </c>
       <c r="B40" s="1">
-        <v>19500000</v>
+        <v>97500000</v>
       </c>
       <c r="C40" s="1">
         <v>9049</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="0"/>
-        <v>6500</v>
+        <v>50000</v>
       </c>
       <c r="E40" s="1">
         <v>9050</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1590,21 +1492,19 @@
         <v>39</v>
       </c>
       <c r="B41" s="1">
-        <v>20000000</v>
+        <v>100000000</v>
       </c>
       <c r="C41" s="1">
-        <v>9043</v>
+        <v>9048</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="0"/>
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="E41" s="1">
-        <v>9044</v>
+        <v>9048</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1612,21 +1512,19 @@
         <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>20500000</v>
+        <v>102500000</v>
       </c>
       <c r="C42" s="1">
-        <v>9032</v>
+        <v>9043</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="0"/>
-        <v>4500000</v>
+        <v>5000000</v>
       </c>
       <c r="E42" s="1">
-        <v>9033</v>
+        <v>9044</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1634,21 +1532,19 @@
         <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>21000000</v>
+        <v>105000000</v>
       </c>
       <c r="C43" s="9">
-        <v>9028</v>
+        <v>9032</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>100000000</v>
       </c>
       <c r="E43" s="1">
-        <v>9028</v>
+        <v>9033</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1656,21 +1552,19 @@
         <v>42</v>
       </c>
       <c r="B44" s="1">
-        <v>21500000</v>
+        <v>107500000</v>
       </c>
       <c r="C44" s="1">
-        <v>9026</v>
+        <v>9028</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="0"/>
-        <v>45000</v>
+        <v>20</v>
       </c>
       <c r="E44" s="1">
-        <v>9027</v>
+        <v>9028</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1678,21 +1572,19 @@
         <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>22000000</v>
+        <v>110000000</v>
       </c>
       <c r="C45" s="1">
-        <v>9016</v>
+        <v>9026</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="0"/>
-        <v>1600</v>
+        <v>500000</v>
       </c>
       <c r="E45" s="1">
-        <v>9017</v>
+        <v>9027</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1700,21 +1592,19 @@
         <v>44</v>
       </c>
       <c r="B46" s="1">
-        <v>22500000</v>
+        <v>112500000</v>
       </c>
       <c r="C46" s="1">
-        <v>9062</v>
+        <v>9016</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" si="0"/>
-        <v>4500</v>
+        <v>30000</v>
       </c>
       <c r="E46" s="1">
-        <v>9063</v>
+        <v>9017</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -1722,21 +1612,19 @@
         <v>45</v>
       </c>
       <c r="B47" s="1">
-        <v>23000000</v>
+        <v>115000000</v>
       </c>
       <c r="C47" s="1">
-        <v>9049</v>
+        <v>9010</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="0"/>
-        <v>6500</v>
+        <v>1000000</v>
       </c>
       <c r="E47" s="1">
-        <v>9050</v>
+        <v>9023</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -1744,21 +1632,19 @@
         <v>46</v>
       </c>
       <c r="B48" s="1">
-        <v>23500000</v>
+        <v>117500000</v>
       </c>
       <c r="C48" s="1">
-        <v>9043</v>
+        <v>9065</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="0"/>
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="E48" s="1">
-        <v>9044</v>
+        <v>9066</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -1766,21 +1652,19 @@
         <v>47</v>
       </c>
       <c r="B49" s="1">
-        <v>24000000</v>
+        <v>120000000</v>
       </c>
       <c r="C49" s="1">
-        <v>9032</v>
+        <v>9064</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="0"/>
-        <v>4500000</v>
+        <v>20000</v>
       </c>
       <c r="E49" s="1">
-        <v>9033</v>
+        <v>9064</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -1788,21 +1672,19 @@
         <v>48</v>
       </c>
       <c r="B50" s="1">
-        <v>24500000</v>
+        <v>122500000</v>
       </c>
       <c r="C50" s="9">
-        <v>9028</v>
+        <v>9062</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="E50" s="1">
-        <v>9028</v>
+        <v>9063</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1810,21 +1692,19 @@
         <v>49</v>
       </c>
       <c r="B51" s="1">
-        <v>25000000</v>
+        <v>125000000</v>
       </c>
       <c r="C51" s="1">
-        <v>9026</v>
+        <v>9049</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" si="0"/>
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="E51" s="1">
-        <v>9027</v>
+        <v>9050</v>
       </c>
       <c r="F51" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -1832,21 +1712,19 @@
         <v>50</v>
       </c>
       <c r="B52" s="1">
-        <v>25500000</v>
+        <v>127500000</v>
       </c>
       <c r="C52" s="1">
-        <v>9016</v>
+        <v>9048</v>
       </c>
       <c r="D52" s="1">
-        <f t="shared" si="0"/>
-        <v>1600</v>
+        <v>100000</v>
       </c>
       <c r="E52" s="1">
-        <v>9017</v>
+        <v>9048</v>
       </c>
       <c r="F52" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -1854,21 +1732,19 @@
         <v>51</v>
       </c>
       <c r="B53" s="1">
-        <v>26000000</v>
+        <v>130000000</v>
       </c>
       <c r="C53" s="1">
-        <v>9062</v>
+        <v>9043</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" si="0"/>
-        <v>4500</v>
+        <v>5000000</v>
       </c>
       <c r="E53" s="1">
-        <v>9063</v>
+        <v>9044</v>
       </c>
       <c r="F53" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -1876,21 +1752,19 @@
         <v>52</v>
       </c>
       <c r="B54" s="1">
-        <v>26500000</v>
+        <v>132500000</v>
       </c>
       <c r="C54" s="1">
-        <v>9049</v>
+        <v>9032</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="0"/>
-        <v>6500</v>
+        <v>100000000</v>
       </c>
       <c r="E54" s="1">
-        <v>9050</v>
+        <v>9033</v>
       </c>
       <c r="F54" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -1898,21 +1772,19 @@
         <v>53</v>
       </c>
       <c r="B55" s="1">
-        <v>27000000</v>
+        <v>135000000</v>
       </c>
       <c r="C55" s="1">
-        <v>9043</v>
+        <v>9028</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" si="0"/>
-        <v>80000</v>
+        <v>20</v>
       </c>
       <c r="E55" s="1">
-        <v>9044</v>
+        <v>9028</v>
       </c>
       <c r="F55" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1920,21 +1792,19 @@
         <v>54</v>
       </c>
       <c r="B56" s="1">
-        <v>27500000</v>
+        <v>137500000</v>
       </c>
       <c r="C56" s="1">
-        <v>9032</v>
+        <v>9026</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" si="0"/>
-        <v>4500000</v>
+        <v>500000</v>
       </c>
       <c r="E56" s="1">
-        <v>9033</v>
+        <v>9027</v>
       </c>
       <c r="F56" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -1942,21 +1812,19 @@
         <v>55</v>
       </c>
       <c r="B57" s="1">
-        <v>28000000</v>
+        <v>140000000</v>
       </c>
       <c r="C57" s="9">
-        <v>9028</v>
+        <v>9016</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>30000</v>
       </c>
       <c r="E57" s="1">
-        <v>9028</v>
+        <v>9017</v>
       </c>
       <c r="F57" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -1964,21 +1832,19 @@
         <v>56</v>
       </c>
       <c r="B58" s="1">
-        <v>28500000</v>
+        <v>142500000</v>
       </c>
       <c r="C58" s="1">
-        <v>9026</v>
+        <v>9010</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" si="0"/>
-        <v>45000</v>
+        <v>1000000</v>
       </c>
       <c r="E58" s="1">
-        <v>9027</v>
+        <v>9023</v>
       </c>
       <c r="F58" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -1986,21 +1852,19 @@
         <v>57</v>
       </c>
       <c r="B59" s="1">
-        <v>29000000</v>
+        <v>145000000</v>
       </c>
       <c r="C59" s="1">
-        <v>9016</v>
+        <v>9065</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" si="0"/>
-        <v>1600</v>
+        <v>30000</v>
       </c>
       <c r="E59" s="1">
-        <v>9017</v>
+        <v>9066</v>
       </c>
       <c r="F59" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2008,21 +1872,19 @@
         <v>58</v>
       </c>
       <c r="B60" s="1">
-        <v>29500000</v>
+        <v>147500000</v>
       </c>
       <c r="C60" s="1">
-        <v>9062</v>
+        <v>9064</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="0"/>
-        <v>4500</v>
+        <v>20000</v>
       </c>
       <c r="E60" s="1">
-        <v>9063</v>
+        <v>9064</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2030,21 +1892,19 @@
         <v>59</v>
       </c>
       <c r="B61" s="1">
-        <v>30000000</v>
+        <v>150000000</v>
       </c>
       <c r="C61" s="1">
-        <v>9049</v>
+        <v>9062</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" si="0"/>
-        <v>6500</v>
+        <v>50000</v>
       </c>
       <c r="E61" s="1">
-        <v>9050</v>
+        <v>9063</v>
       </c>
       <c r="F61" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2058,14 +1918,26 @@
         <v>9043</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:D68" si="0">IF(C62=9043,80000,
+IF(C62=9032,4500000,
+IF(C62=9026,45000,
+IF(C62=9016,1600,
+IF(C62=9062,4500,
+IF(C62=9049,6500,
+IF(C62=9028,1)))))))</f>
         <v>80000</v>
       </c>
       <c r="E62" s="1">
         <v>9044</v>
       </c>
       <c r="F62" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F5:F68" si="1">IF(E62=9044,1,
+IF(E62=9033,1,
+IF(E62=9028,2,
+IF(E62=9027,1,
+IF(E62=9017,1,
+IF(E62=9063,1,
+IF(E62=9050,1)))))))</f>
         <v>1</v>
       </c>
     </row>
@@ -5266,7 +5138,7 @@
       </c>
       <c r="J8">
         <f ca="1">SUMIF(monthpass2!E:F,balance!G8,monthpass2!F:F)</f>
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
@@ -5315,7 +5187,7 @@
       </c>
       <c r="J11">
         <f ca="1">SUMIF(monthpass2!E:F,balance!G11,monthpass2!F:F)</f>
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
@@ -5330,7 +5202,7 @@
       </c>
       <c r="E12" s="10">
         <f ca="1">SUMIF(monthpass2!C:D,balance!B12,monthpass2!D:D)</f>
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="G12">
         <v>9028</v>
@@ -5343,7 +5215,7 @@
       </c>
       <c r="J12">
         <f ca="1">SUMIF(monthpass2!E:F,balance!G12,monthpass2!F:F)</f>
-        <v>56</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
@@ -5364,7 +5236,7 @@
       </c>
       <c r="J13">
         <f ca="1">SUMIF(monthpass2!E:F,balance!G13,monthpass2!F:F)</f>
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
@@ -5385,7 +5257,7 @@
       </c>
       <c r="J14">
         <f ca="1">SUMIF(monthpass2!E:F,balance!G14,monthpass2!F:F)</f>
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
@@ -5406,7 +5278,7 @@
       </c>
       <c r="J15">
         <f ca="1">SUMIF(monthpass2!E:F,balance!G15,monthpass2!F:F)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
@@ -5512,7 +5384,7 @@
       </c>
       <c r="E23" s="10">
         <f ca="1">SUMIF(monthpass2!C:D,balance!B23,monthpass2!D:D)</f>
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="G23">
         <v>9010</v>
@@ -5557,7 +5429,7 @@
       </c>
       <c r="E25" s="10">
         <f ca="1">SUMIF(monthpass2!C:D,balance!B25,monthpass2!D:D)</f>
-        <v>44800</v>
+        <v>182000</v>
       </c>
       <c r="F25" t="s">
         <v>36</v>
@@ -5581,7 +5453,7 @@
       </c>
       <c r="E26" s="10">
         <f ca="1">SUMIF(monthpass2!C:D,balance!B26,monthpass2!D:D)</f>
-        <v>1260000</v>
+        <v>3400000</v>
       </c>
       <c r="F26" t="s">
         <v>34</v>
@@ -5605,7 +5477,7 @@
       </c>
       <c r="E27" s="10">
         <f ca="1">SUMIF(monthpass2!C:D,balance!B27,monthpass2!D:D)</f>
-        <v>126000000</v>
+        <v>590000000</v>
       </c>
       <c r="F27" t="s">
         <v>35</v>
@@ -5629,7 +5501,7 @@
       </c>
       <c r="E28" s="10">
         <f ca="1">SUMIF(monthpass2!C:D,balance!B28,monthpass2!D:D)</f>
-        <v>2240000</v>
+        <v>26600000</v>
       </c>
       <c r="F28" t="s">
         <v>34</v>
@@ -5735,11 +5607,11 @@
       </c>
       <c r="D44">
         <f>SUMIF(monthpass2!C:C,balance!B44,monthpass2!D:D)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44">
         <f>SUMIF(monthpass2!E:E,balance!B44,monthpass2!F:F)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
@@ -5755,7 +5627,7 @@
       </c>
       <c r="E45">
         <f>SUMIF(monthpass2!E:E,balance!B45,monthpass2!F:F)</f>
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
@@ -5803,7 +5675,7 @@
       </c>
       <c r="E48">
         <f>SUMIF(monthpass2!E:E,balance!B48,monthpass2!F:F)</f>
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
@@ -5815,11 +5687,11 @@
       </c>
       <c r="D49">
         <f>SUMIF(monthpass2!C:C,balance!B49,monthpass2!D:D)</f>
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="E49">
         <f>SUMIF(monthpass2!E:E,balance!B49,monthpass2!F:F)</f>
-        <v>56</v>
+        <v>290</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
@@ -5835,7 +5707,7 @@
       </c>
       <c r="E50">
         <f>SUMIF(monthpass2!E:E,balance!B50,monthpass2!F:F)</f>
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
@@ -5851,7 +5723,7 @@
       </c>
       <c r="E51">
         <f>SUMIF(monthpass2!E:E,balance!B51,monthpass2!F:F)</f>
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
@@ -5867,7 +5739,7 @@
       </c>
       <c r="E52">
         <f>SUMIF(monthpass2!E:E,balance!B52,monthpass2!F:F)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
@@ -5975,7 +5847,7 @@
       </c>
       <c r="D60">
         <f>SUMIF(monthpass2!C:C,balance!B60,monthpass2!D:D)</f>
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="E60">
         <f>SUMIF(monthpass2!E:E,balance!B60,monthpass2!F:F)</f>
@@ -6007,7 +5879,7 @@
       </c>
       <c r="D62">
         <f>SUMIF(monthpass2!C:C,balance!B62,monthpass2!D:D)</f>
-        <v>44800</v>
+        <v>182000</v>
       </c>
       <c r="E62">
         <f>SUMIF(monthpass2!E:E,balance!B62,monthpass2!F:F)</f>
@@ -6023,7 +5895,7 @@
       </c>
       <c r="D63">
         <f>SUMIF(monthpass2!C:C,balance!B63,monthpass2!D:D)</f>
-        <v>1260000</v>
+        <v>3400000</v>
       </c>
       <c r="E63">
         <f>SUMIF(monthpass2!E:E,balance!B63,monthpass2!F:F)</f>
@@ -6039,7 +5911,7 @@
       </c>
       <c r="D64">
         <f>SUMIF(monthpass2!C:C,balance!B64,monthpass2!D:D)</f>
-        <v>126000000</v>
+        <v>590000000</v>
       </c>
       <c r="E64">
         <f>SUMIF(monthpass2!E:E,balance!B64,monthpass2!F:F)</f>
@@ -6055,7 +5927,7 @@
       </c>
       <c r="D65">
         <f>SUMIF(monthpass2!C:C,balance!B65,monthpass2!D:D)</f>
-        <v>2240000</v>
+        <v>26600000</v>
       </c>
       <c r="E65">
         <f>SUMIF(monthpass2!E:E,balance!B65,monthpass2!F:F)</f>
@@ -6071,7 +5943,7 @@
       </c>
       <c r="D66">
         <f>SUMIF(monthpass2!C:C,balance!B66,monthpass2!D:D)</f>
-        <v>130500</v>
+        <v>390000</v>
       </c>
       <c r="E66">
         <f>SUMIF(monthpass2!E:E,balance!B66,monthpass2!F:F)</f>
@@ -6087,7 +5959,7 @@
       </c>
       <c r="D67">
         <f>SUMIF(monthpass2!C:C,balance!B67,monthpass2!D:D)</f>
-        <v>188500</v>
+        <v>380000</v>
       </c>
       <c r="E67">
         <f>SUMIF(monthpass2!E:E,balance!B67,monthpass2!F:F)</f>
@@ -6103,7 +5975,7 @@
       </c>
       <c r="D68">
         <f>SUMIF(monthpass2!C:C,balance!B68,monthpass2!D:D)</f>
-        <v>2240000</v>
+        <v>26600000</v>
       </c>
       <c r="E68">
         <f>SUMIF(monthpass2!E:E,balance!B68,monthpass2!F:F)</f>
@@ -6119,7 +5991,7 @@
       </c>
       <c r="D69">
         <f>SUMIF(monthpass2!C:C,balance!B69,monthpass2!D:D)</f>
-        <v>126000000</v>
+        <v>590000000</v>
       </c>
       <c r="E69">
         <f>SUMIF(monthpass2!E:E,balance!B69,monthpass2!F:F)</f>
@@ -6135,11 +6007,11 @@
       </c>
       <c r="D70">
         <f>SUMIF(monthpass2!C:C,balance!B70,monthpass2!D:D)</f>
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="E70">
         <f>SUMIF(monthpass2!E:E,balance!B70,monthpass2!F:F)</f>
-        <v>56</v>
+        <v>290</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.3">
@@ -6151,7 +6023,7 @@
       </c>
       <c r="D71">
         <f>SUMIF(monthpass2!C:C,balance!B71,monthpass2!D:D)</f>
-        <v>1260000</v>
+        <v>3400000</v>
       </c>
       <c r="E71">
         <f>SUMIF(monthpass2!E:E,balance!B71,monthpass2!F:F)</f>
@@ -6167,7 +6039,7 @@
       </c>
       <c r="D72">
         <f>SUMIF(monthpass2!C:C,balance!B72,monthpass2!D:D)</f>
-        <v>44800</v>
+        <v>182000</v>
       </c>
       <c r="E72">
         <f>SUMIF(monthpass2!E:E,balance!B72,monthpass2!F:F)</f>

--- a/Assets/06.Table/MonthlyPass2.xlsx
+++ b/Assets/06.Table/MonthlyPass2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40842CB-C15F-45FC-8C2C-14E4ED58BE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787992E6-D923-4BE9-8B34-EBDD0115D6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -672,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -714,13 +714,13 @@
         <v>500000</v>
       </c>
       <c r="C2" s="4">
-        <v>2035</v>
+        <v>2042</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" s="3">
-        <v>1548</v>
+        <v>1560</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>

--- a/Assets/06.Table/MonthlyPass2.xlsx
+++ b/Assets/06.Table/MonthlyPass2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787992E6-D923-4BE9-8B34-EBDD0115D6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B24DD55-E9AD-4376-AC53-0E1F690A48B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="monthpass2" sheetId="1" r:id="rId1"/>
@@ -673,7 +673,7 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -714,13 +714,13 @@
         <v>500000</v>
       </c>
       <c r="C2" s="4">
-        <v>2042</v>
+        <v>2045</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" s="3">
-        <v>1560</v>
+        <v>1563</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>

--- a/Assets/06.Table/MonthlyPass2.xlsx
+++ b/Assets/06.Table/MonthlyPass2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B24DD55-E9AD-4376-AC53-0E1F690A48B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F23E0A9-AC3E-40D7-B1A9-89E423CD4278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="monthpass2" sheetId="1" r:id="rId1"/>
@@ -714,13 +714,13 @@
         <v>500000</v>
       </c>
       <c r="C2" s="4">
-        <v>2045</v>
+        <v>2047</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" s="3">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
